--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.65470858702767</v>
+        <v>1.654708587027926</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4300640997580274</v>
+        <v>0.4300640997578284</v>
       </c>
       <c r="E2">
-        <v>3.550107347894254</v>
+        <v>3.550107347894283</v>
       </c>
       <c r="F2">
-        <v>8.372937457011318</v>
+        <v>8.372937457011346</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.57086323073861</v>
+        <v>3.570863230738667</v>
       </c>
       <c r="L2">
-        <v>3.647200145040401</v>
+        <v>3.647200145040415</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.412088589201772</v>
+        <v>1.412088589201545</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3407481473204115</v>
+        <v>0.3407481473199994</v>
       </c>
       <c r="E3">
-        <v>3.004769491283525</v>
+        <v>3.004769491283554</v>
       </c>
       <c r="F3">
-        <v>6.802681604523599</v>
+        <v>6.802681604523514</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.004672630982881</v>
+        <v>3.004672630982895</v>
       </c>
       <c r="L3">
-        <v>3.077311136985216</v>
+        <v>3.077311136985202</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.269669963881995</v>
+        <v>1.269669963881796</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2933908918083858</v>
+        <v>0.2933908918085848</v>
       </c>
       <c r="E4">
         <v>2.690385001491194</v>
@@ -518,7 +518,7 @@
         <v>2.678647426997401</v>
       </c>
       <c r="L4">
-        <v>2.747662603102938</v>
+        <v>2.747662603102896</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.212885325169822</v>
+        <v>1.21288532516968</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2754843375234941</v>
+        <v>0.2754843375234799</v>
       </c>
       <c r="E5">
-        <v>2.565975950928234</v>
+        <v>2.565975950928262</v>
       </c>
       <c r="F5">
-        <v>5.620602981052514</v>
+        <v>5.620602981052542</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.549794570504602</v>
+        <v>2.549794570504616</v>
       </c>
       <c r="L5">
-        <v>2.617102043740175</v>
+        <v>2.617102043740189</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.203522545637554</v>
+        <v>1.203522545637867</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2725838679922106</v>
+        <v>0.2725838679924379</v>
       </c>
       <c r="E6">
-        <v>2.545508840079791</v>
+        <v>2.545508840079805</v>
       </c>
       <c r="F6">
         <v>5.567266316867688</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.528607356369221</v>
+        <v>2.528607356369264</v>
       </c>
       <c r="L6">
         <v>2.595619721690184</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.268899512399344</v>
+        <v>1.268899512399031</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2931442846825263</v>
+        <v>0.2931442846826684</v>
       </c>
       <c r="E7">
-        <v>2.688693713405769</v>
+        <v>2.68869371340584</v>
       </c>
       <c r="F7">
-        <v>5.943791104756144</v>
+        <v>5.943791104756201</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.676895006015627</v>
+        <v>2.67689500601567</v>
       </c>
       <c r="L7">
-        <v>2.74588797384267</v>
+        <v>2.745887973842699</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.56941090345822</v>
+        <v>1.569410903458277</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3973546642407655</v>
+        <v>0.3973546642405807</v>
       </c>
       <c r="E8">
-        <v>3.356773200044529</v>
+        <v>3.356773200044643</v>
       </c>
       <c r="F8">
-        <v>7.803526631921329</v>
+        <v>7.803526631921301</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>3.370114897395382</v>
       </c>
       <c r="L8">
-        <v>3.445538873063313</v>
+        <v>3.445538873063285</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.240857456817309</v>
+        <v>2.240857456817764</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.7019785635725384</v>
+        <v>0.7019785635720552</v>
       </c>
       <c r="E9">
-        <v>4.948689641534884</v>
+        <v>4.948689641534855</v>
       </c>
       <c r="F9">
-        <v>12.90799981360809</v>
+        <v>12.90799981360794</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.015518228259054</v>
+        <v>5.015518228259083</v>
       </c>
       <c r="L9">
-        <v>5.083270477806607</v>
+        <v>5.083270477806565</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E10">
         <v>6.860021017101531</v>
       </c>
       <c r="F10">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L10">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E11">
         <v>6.860021017101531</v>
       </c>
       <c r="F11">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L11">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E12">
         <v>6.860021017101531</v>
       </c>
       <c r="F12">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L12">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E13">
         <v>6.860021017101531</v>
       </c>
       <c r="F13">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L13">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E14">
         <v>6.860021017101531</v>
       </c>
       <c r="F14">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L14">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E15">
         <v>6.860021017101531</v>
       </c>
       <c r="F15">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L15">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E16">
         <v>6.860021017101531</v>
       </c>
       <c r="F16">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L16">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E17">
         <v>6.860021017101531</v>
       </c>
       <c r="F17">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L17">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E18">
         <v>6.860021017101531</v>
       </c>
       <c r="F18">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L18">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E19">
         <v>6.860021017101531</v>
       </c>
       <c r="F19">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L19">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E20">
         <v>6.860021017101531</v>
       </c>
       <c r="F20">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L20">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E21">
         <v>6.860021017101531</v>
       </c>
       <c r="F21">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L21">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E22">
         <v>6.860021017101531</v>
       </c>
       <c r="F22">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L22">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E23">
         <v>6.860021017101531</v>
       </c>
       <c r="F23">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L23">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E24">
         <v>6.860021017101531</v>
       </c>
       <c r="F24">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L24">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908773760871895</v>
+        <v>2.908773760871838</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182968089399481</v>
+        <v>1.182968089399452</v>
       </c>
       <c r="E25">
         <v>6.860021017101531</v>
       </c>
       <c r="F25">
-        <v>20.30280540026632</v>
+        <v>20.30280540026683</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.907203232298912</v>
+        <v>6.907203232298883</v>
       </c>
       <c r="L25">
-        <v>6.908992742599906</v>
+        <v>6.908992742599978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.654708587027926</v>
+        <v>1.65470858702767</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4300640997578284</v>
+        <v>0.4300640997580274</v>
       </c>
       <c r="E2">
-        <v>3.550107347894283</v>
+        <v>3.550107347894254</v>
       </c>
       <c r="F2">
-        <v>8.372937457011346</v>
+        <v>8.372937457011318</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.570863230738667</v>
+        <v>3.57086323073861</v>
       </c>
       <c r="L2">
-        <v>3.647200145040415</v>
+        <v>3.647200145040401</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.412088589201545</v>
+        <v>1.412088589201772</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3407481473199994</v>
+        <v>0.3407481473204115</v>
       </c>
       <c r="E3">
-        <v>3.004769491283554</v>
+        <v>3.004769491283525</v>
       </c>
       <c r="F3">
-        <v>6.802681604523514</v>
+        <v>6.802681604523599</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.004672630982895</v>
+        <v>3.004672630982881</v>
       </c>
       <c r="L3">
-        <v>3.077311136985202</v>
+        <v>3.077311136985216</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.269669963881796</v>
+        <v>1.269669963881995</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2933908918085848</v>
+        <v>0.2933908918083858</v>
       </c>
       <c r="E4">
         <v>2.690385001491194</v>
@@ -518,7 +518,7 @@
         <v>2.678647426997401</v>
       </c>
       <c r="L4">
-        <v>2.747662603102896</v>
+        <v>2.747662603102938</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.21288532516968</v>
+        <v>1.212885325169822</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2754843375234799</v>
+        <v>0.2754843375234941</v>
       </c>
       <c r="E5">
-        <v>2.565975950928262</v>
+        <v>2.565975950928234</v>
       </c>
       <c r="F5">
-        <v>5.620602981052542</v>
+        <v>5.620602981052514</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.549794570504616</v>
+        <v>2.549794570504602</v>
       </c>
       <c r="L5">
-        <v>2.617102043740189</v>
+        <v>2.617102043740175</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.203522545637867</v>
+        <v>1.203522545637554</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2725838679924379</v>
+        <v>0.2725838679922106</v>
       </c>
       <c r="E6">
-        <v>2.545508840079805</v>
+        <v>2.545508840079791</v>
       </c>
       <c r="F6">
         <v>5.567266316867688</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.528607356369264</v>
+        <v>2.528607356369221</v>
       </c>
       <c r="L6">
         <v>2.595619721690184</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.268899512399031</v>
+        <v>1.268899512399344</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2931442846826684</v>
+        <v>0.2931442846825263</v>
       </c>
       <c r="E7">
-        <v>2.68869371340584</v>
+        <v>2.688693713405769</v>
       </c>
       <c r="F7">
-        <v>5.943791104756201</v>
+        <v>5.943791104756144</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.67689500601567</v>
+        <v>2.676895006015627</v>
       </c>
       <c r="L7">
-        <v>2.745887973842699</v>
+        <v>2.74588797384267</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.569410903458277</v>
+        <v>1.56941090345822</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3973546642405807</v>
+        <v>0.3973546642407655</v>
       </c>
       <c r="E8">
-        <v>3.356773200044643</v>
+        <v>3.356773200044529</v>
       </c>
       <c r="F8">
-        <v>7.803526631921301</v>
+        <v>7.803526631921329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>3.370114897395382</v>
       </c>
       <c r="L8">
-        <v>3.445538873063285</v>
+        <v>3.445538873063313</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.240857456817764</v>
+        <v>2.240857456817309</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.7019785635720552</v>
+        <v>0.7019785635725384</v>
       </c>
       <c r="E9">
-        <v>4.948689641534855</v>
+        <v>4.948689641534884</v>
       </c>
       <c r="F9">
-        <v>12.90799981360794</v>
+        <v>12.90799981360809</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.015518228259083</v>
+        <v>5.015518228259054</v>
       </c>
       <c r="L9">
-        <v>5.083270477806565</v>
+        <v>5.083270477806607</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E10">
         <v>6.860021017101531</v>
       </c>
       <c r="F10">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L10">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E11">
         <v>6.860021017101531</v>
       </c>
       <c r="F11">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L11">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E12">
         <v>6.860021017101531</v>
       </c>
       <c r="F12">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L12">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E13">
         <v>6.860021017101531</v>
       </c>
       <c r="F13">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L13">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E14">
         <v>6.860021017101531</v>
       </c>
       <c r="F14">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L14">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E15">
         <v>6.860021017101531</v>
       </c>
       <c r="F15">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L15">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E16">
         <v>6.860021017101531</v>
       </c>
       <c r="F16">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L16">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E17">
         <v>6.860021017101531</v>
       </c>
       <c r="F17">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L17">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E18">
         <v>6.860021017101531</v>
       </c>
       <c r="F18">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L18">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E19">
         <v>6.860021017101531</v>
       </c>
       <c r="F19">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L19">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E20">
         <v>6.860021017101531</v>
       </c>
       <c r="F20">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L20">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E21">
         <v>6.860021017101531</v>
       </c>
       <c r="F21">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L21">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E22">
         <v>6.860021017101531</v>
       </c>
       <c r="F22">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L22">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E23">
         <v>6.860021017101531</v>
       </c>
       <c r="F23">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L23">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E24">
         <v>6.860021017101531</v>
       </c>
       <c r="F24">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L24">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908773760871838</v>
+        <v>2.908773760871895</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182968089399452</v>
+        <v>1.182968089399481</v>
       </c>
       <c r="E25">
         <v>6.860021017101531</v>
       </c>
       <c r="F25">
-        <v>20.30280540026683</v>
+        <v>20.30280540026632</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.907203232298883</v>
+        <v>6.907203232298912</v>
       </c>
       <c r="L25">
-        <v>6.908992742599978</v>
+        <v>6.908992742599906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.65470858702767</v>
+        <v>1.647023253508422</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4300640997580274</v>
+        <v>0.4160575379530798</v>
       </c>
       <c r="E2">
-        <v>3.550107347894254</v>
+        <v>3.489934682822934</v>
       </c>
       <c r="F2">
-        <v>8.372937457011318</v>
+        <v>8.20560716010192</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006164098974994671</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.57086323073861</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.647200145040401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.53085531151757</v>
+      </c>
+      <c r="M2">
+        <v>3.612401099804131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.412088589201772</v>
+        <v>1.406510681646779</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3407481473204115</v>
+        <v>0.3306307168919034</v>
       </c>
       <c r="E3">
-        <v>3.004769491283525</v>
+        <v>2.953750218534651</v>
       </c>
       <c r="F3">
-        <v>6.802681604523599</v>
+        <v>6.682964324775185</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006470190380845261</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.004672630982881</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.077311136985216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.972780696527664</v>
+      </c>
+      <c r="M3">
+        <v>3.04995251897877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.269669963881995</v>
+        <v>1.265223077711482</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2933908918083858</v>
+        <v>0.2853616894211655</v>
       </c>
       <c r="E4">
-        <v>2.690385001491194</v>
+        <v>2.644125887467126</v>
       </c>
       <c r="F4">
-        <v>5.948285699699795</v>
+        <v>5.85369366621191</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000665185036960317</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.678647426997401</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.747662603102938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.651022670262691</v>
+      </c>
+      <c r="M4">
+        <v>2.724231792429492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.212885325169822</v>
+        <v>1.208872966880165</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2754843375234941</v>
+        <v>0.2682580105726089</v>
       </c>
       <c r="E5">
-        <v>2.565975950928234</v>
+        <v>2.521515734585336</v>
       </c>
       <c r="F5">
-        <v>5.620602981052514</v>
+        <v>5.535582973849671</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006724990190357523</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.549794570504602</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.617102043740175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.523791678177204</v>
+      </c>
+      <c r="M5">
+        <v>2.595167347556554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.203522545637554</v>
+        <v>1.199581052848544</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2725838679922106</v>
+        <v>0.2654885225243646</v>
       </c>
       <c r="E6">
-        <v>2.545508840079791</v>
+        <v>2.501340382750996</v>
       </c>
       <c r="F6">
-        <v>5.567266316867688</v>
+        <v>5.483803109414367</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006737097305889583</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.528607356369221</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.595619721690184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.502868016831712</v>
+      </c>
+      <c r="M6">
+        <v>2.573928322379686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.268899512399344</v>
+        <v>1.264458578755693</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2931442846825263</v>
+        <v>0.2851260779320199</v>
       </c>
       <c r="E7">
-        <v>2.688693713405769</v>
+        <v>2.642459356377358</v>
       </c>
       <c r="F7">
-        <v>5.943791104756144</v>
+        <v>5.849330500723198</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006652839609579603</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.676895006015627</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.74588797384267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.649292534063974</v>
+      </c>
+      <c r="M7">
+        <v>2.722477707548407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.56941090345822</v>
+        <v>1.562497487408223</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3973546642407655</v>
+        <v>0.3847727021734215</v>
       </c>
       <c r="E8">
-        <v>3.356773200044529</v>
+        <v>3.299994575423995</v>
       </c>
       <c r="F8">
-        <v>7.803526631921329</v>
+        <v>7.653754538392093</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006271447128996343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.370114897395382</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.445538873063313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.333103561381847</v>
+      </c>
+      <c r="M8">
+        <v>3.413482755850893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.240857456817309</v>
+        <v>2.226235926976301</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.7019785635725384</v>
+        <v>0.6751308916694256</v>
       </c>
       <c r="E9">
-        <v>4.948689641534884</v>
+        <v>4.856176711340566</v>
       </c>
       <c r="F9">
-        <v>12.90799981360809</v>
+        <v>12.57749505660772</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005417749437685075</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.015518228259054</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.083270477806607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.947556744755644</v>
+      </c>
+      <c r="M9">
+        <v>5.023061853152399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E10">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F10">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M10">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E11">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F11">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M11">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E12">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F12">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M12">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E13">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F13">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M13">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E14">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F14">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M14">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E15">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F15">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M15">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E16">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F16">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M16">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E17">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F17">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M17">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E18">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F18">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M18">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E19">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F19">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M19">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E20">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F20">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M20">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E21">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F21">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M21">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E22">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F22">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M22">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E23">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F23">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M23">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E24">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F24">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.908992742599906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M24">
+        <v>6.762426543739068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908773760871895</v>
+        <v>2.871818458724476</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182968089399481</v>
+        <v>1.114200812858968</v>
       </c>
       <c r="E25">
-        <v>6.860021017101531</v>
+        <v>6.651337389714513</v>
       </c>
       <c r="F25">
-        <v>20.30280540026632</v>
+        <v>19.41273257541462</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004483789947498574</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.907203232298912</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.908992742599906</v>
+        <v>6.743140648456432</v>
+      </c>
+      <c r="M25">
+        <v>6.762426543739068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.647023253508422</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4160575379530798</v>
+        <v>0.8030543808969526</v>
       </c>
       <c r="E2">
-        <v>3.489934682822934</v>
+        <v>2.162897324989572</v>
       </c>
       <c r="F2">
-        <v>8.20560716010192</v>
+        <v>12.62232709000276</v>
       </c>
       <c r="G2">
-        <v>0.0006164098974994671</v>
+        <v>0.0005502931266005545</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.53085531151757</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.612401099804131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4.288064236591566</v>
+      </c>
+      <c r="O2">
+        <v>11.30068367827559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.406510681646779</v>
+        <v>0.2356773118708304</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3306307168919034</v>
+        <v>0.6428663796792762</v>
       </c>
       <c r="E3">
-        <v>2.953750218534651</v>
+        <v>1.716833585672006</v>
       </c>
       <c r="F3">
-        <v>6.682964324775185</v>
+        <v>10.20477380391989</v>
       </c>
       <c r="G3">
-        <v>0.0006470190380845261</v>
+        <v>0.0005861267240582395</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.972780696527664</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.04995251897877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3.836929003758627</v>
+      </c>
+      <c r="O3">
+        <v>9.128273442625471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.265223077711482</v>
+        <v>0.2152931864903422</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2853616894211655</v>
+        <v>0.558655894049167</v>
       </c>
       <c r="E4">
-        <v>2.644125887467126</v>
+        <v>1.485699330385359</v>
       </c>
       <c r="F4">
-        <v>5.85369366621191</v>
+        <v>8.915594443148251</v>
       </c>
       <c r="G4">
-        <v>0.000665185036960317</v>
+        <v>0.0006063649138304422</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.651022670262691</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.724231792429492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3.560096915490561</v>
+      </c>
+      <c r="O4">
+        <v>7.971182744370765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.208872966880165</v>
+        <v>0.2070077212372041</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2682580105726089</v>
+        <v>0.5266662221933132</v>
       </c>
       <c r="E5">
-        <v>2.521515734585336</v>
+        <v>1.398436435259342</v>
       </c>
       <c r="F5">
-        <v>5.535582973849671</v>
+        <v>8.422809272709429</v>
       </c>
       <c r="G5">
-        <v>0.0006724990190357523</v>
+        <v>0.0006143532440645997</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.523791678177204</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.595167347556554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3.447332324296895</v>
+      </c>
+      <c r="O5">
+        <v>7.529113239300443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.199581052848544</v>
+        <v>0.2056331561249323</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2654885225243646</v>
+        <v>0.5214703744718179</v>
       </c>
       <c r="E6">
-        <v>2.501340382750996</v>
+        <v>1.384289656881663</v>
       </c>
       <c r="F6">
-        <v>5.483803109414367</v>
+        <v>8.342616797947727</v>
       </c>
       <c r="G6">
-        <v>0.0006737097305889583</v>
+        <v>0.0006156677688306525</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.502868016831712</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.573928322379686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>3.428610827881755</v>
+      </c>
+      <c r="O6">
+        <v>7.457185092866752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.264458578755693</v>
+        <v>0.2151813622175638</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2851260779320199</v>
+        <v>0.5582162143277287</v>
       </c>
       <c r="E7">
-        <v>2.642459356377358</v>
+        <v>1.484498006641275</v>
       </c>
       <c r="F7">
-        <v>5.849330500723198</v>
+        <v>8.908832505664691</v>
       </c>
       <c r="G7">
-        <v>0.0006652839609579603</v>
+        <v>0.0006064735194789286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.649292534063974</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.722477707548407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3.558575936671218</v>
+      </c>
+      <c r="O7">
+        <v>7.965115906878964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.562497487408223</v>
+        <v>0.257506809188385</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3847727021734215</v>
+        <v>0.7438765011105488</v>
       </c>
       <c r="E8">
-        <v>3.299994575423995</v>
+        <v>1.997053786313174</v>
       </c>
       <c r="F8">
-        <v>7.653754538392093</v>
+        <v>11.73478755783157</v>
       </c>
       <c r="G8">
-        <v>0.0006271447128996343</v>
+        <v>0.0005631653624535993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.333103561381847</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.413482755850893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4.132480705843307</v>
+      </c>
+      <c r="O8">
+        <v>10.50272650965533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.226235926976301</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6751308916694256</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E9">
-        <v>4.856176711340566</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F9">
-        <v>12.57749505660772</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G9">
-        <v>0.0005417749437685075</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.947556744755644</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>5.023061853152399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O9">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E10">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F10">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G10">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O10">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E11">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F11">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G11">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O11">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E12">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F12">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G12">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O12">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E13">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F13">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G13">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O13">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E14">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F14">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G14">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O14">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E15">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F15">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G15">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O15">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E16">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F16">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G16">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O16">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E17">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F17">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G17">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O17">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E18">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F18">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G18">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O18">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E19">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F19">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G19">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O19">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E20">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F20">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G20">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O20">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E21">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F21">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G21">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O21">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E22">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F22">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G22">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O22">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E23">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F23">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G23">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O23">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E24">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F24">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G24">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>6.762426543739068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O24">
+        <v>19.46181047954326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.871818458724476</v>
+        <v>0.3413255086065163</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.114200812858968</v>
+        <v>1.43914542535947</v>
       </c>
       <c r="E25">
-        <v>6.651337389714513</v>
+        <v>4.062996384640144</v>
       </c>
       <c r="F25">
-        <v>19.41273257541462</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G25">
-        <v>0.0004483789947498574</v>
+        <v>0.0004320639287472136</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.743140648456432</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6.762426543739068</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O25">
+        <v>19.46181047954326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.80086895294437</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8030543808969526</v>
+        <v>0.0780152887485599</v>
       </c>
       <c r="E2">
-        <v>2.162897324989572</v>
+        <v>0.06052579048847306</v>
       </c>
       <c r="F2">
-        <v>12.62232709000276</v>
+        <v>0.7437848937152154</v>
       </c>
       <c r="G2">
-        <v>0.0005502931266005545</v>
+        <v>0.0008124907089353336</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4399009266835137</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08076415325276343</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.268928384762205</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3208116589933212</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.288064236591566</v>
+        <v>0.956194922110436</v>
       </c>
       <c r="O2">
-        <v>11.30068367827559</v>
+        <v>1.839538112200728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356773118708304</v>
+        <v>0.7055037546760445</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6428663796792762</v>
+        <v>0.07378413157347552</v>
       </c>
       <c r="E3">
-        <v>1.716833585672006</v>
+        <v>0.06100016416132714</v>
       </c>
       <c r="F3">
-        <v>10.20477380391989</v>
+        <v>0.7234436995975955</v>
       </c>
       <c r="G3">
-        <v>0.0005861267240582395</v>
+        <v>0.0008160333059647479</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4510392449011604</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08260951568658226</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.104205602801812</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2816462176868129</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.836929003758627</v>
+        <v>0.9963737747177994</v>
       </c>
       <c r="O3">
-        <v>9.128273442625471</v>
+        <v>1.796489563936092</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864903422</v>
+        <v>0.6472366972732289</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.558655894049167</v>
+        <v>0.07124328061299678</v>
       </c>
       <c r="E4">
-        <v>1.485699330385359</v>
+        <v>0.06134278378051139</v>
       </c>
       <c r="F4">
-        <v>8.915594443148251</v>
+        <v>0.7121198652934737</v>
       </c>
       <c r="G4">
-        <v>0.0006063649138304422</v>
+        <v>0.0008182853089683774</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4585622516902212</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08379833686894966</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.00313628131903</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2577458129645578</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.560096915490561</v>
+        <v>1.022101967905</v>
       </c>
       <c r="O4">
-        <v>7.971182744370765</v>
+        <v>1.773232480954846</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212372041</v>
+        <v>0.6235577352794621</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5266662221933132</v>
+        <v>0.0702218026568886</v>
       </c>
       <c r="E5">
-        <v>1.398436435259342</v>
+        <v>0.06149515970553843</v>
       </c>
       <c r="F5">
-        <v>8.422809272709429</v>
+        <v>0.7077870295400004</v>
       </c>
       <c r="G5">
-        <v>0.0006143532440645997</v>
+        <v>0.0008192226181805594</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4617956231117368</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08429673267810101</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9619555593725977</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2480393096953009</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.447332324296895</v>
+        <v>1.032847443368386</v>
       </c>
       <c r="O5">
-        <v>7.529113239300443</v>
+        <v>1.764520631775099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561249323</v>
+        <v>0.6196296109070545</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5214703744718179</v>
+        <v>0.07005301708844058</v>
       </c>
       <c r="E6">
-        <v>1.384289656881663</v>
+        <v>0.06152122753495526</v>
       </c>
       <c r="F6">
-        <v>8.342616797947727</v>
+        <v>0.7070842562866559</v>
       </c>
       <c r="G6">
-        <v>0.0006156677688306525</v>
+        <v>0.0008193794493197834</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4623425266389027</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08438033066114725</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.955117545801329</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2464294403058602</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.428610827881755</v>
+        <v>1.034647342775733</v>
       </c>
       <c r="O6">
-        <v>7.457185092866752</v>
+        <v>1.763119346517996</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622175638</v>
+        <v>0.6469170989209658</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5582162143277287</v>
+        <v>0.0712294487015086</v>
       </c>
       <c r="E7">
-        <v>1.484498006641275</v>
+        <v>0.06134478733158755</v>
       </c>
       <c r="F7">
-        <v>8.908832505664691</v>
+        <v>0.7120603052064425</v>
       </c>
       <c r="G7">
-        <v>0.0006064735194789286</v>
+        <v>0.0008182978701261612</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4586051846992021</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08380500206402719</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.002580895461989</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2576147786888328</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.558575936671218</v>
+        <v>1.022245834783741</v>
       </c>
       <c r="O7">
-        <v>7.965115906878964</v>
+        <v>1.773111932226371</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.257506809188385</v>
+        <v>0.7679230145060103</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7438765011105488</v>
+        <v>0.07654427624687798</v>
       </c>
       <c r="E8">
-        <v>1.997053786313174</v>
+        <v>0.06067859980814116</v>
       </c>
       <c r="F8">
-        <v>11.73478755783157</v>
+        <v>0.7365222652346475</v>
       </c>
       <c r="G8">
-        <v>0.0005631653624535993</v>
+        <v>0.0008136964210924691</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4435967949984523</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08138881231707185</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.212109706241677</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3072743885473983</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.132480705843307</v>
+        <v>0.9698258466914194</v>
       </c>
       <c r="O8">
-        <v>10.50272650965533</v>
+        <v>1.824015832501345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086065163</v>
+        <v>1.007840627731468</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.43914542535947</v>
+        <v>0.08744009193672042</v>
       </c>
       <c r="E9">
-        <v>4.062996384640144</v>
+        <v>0.05978707886643697</v>
       </c>
       <c r="F9">
-        <v>21.65798227571383</v>
+        <v>0.7942848721870064</v>
       </c>
       <c r="G9">
-        <v>0.0004320639287472136</v>
+        <v>0.0008052693793098356</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4197956278374519</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07709672949479662</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.624155131263052</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4060183542400608</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.259113965554377</v>
+        <v>0.8756630352000769</v>
       </c>
       <c r="O9">
-        <v>19.46181047954326</v>
+        <v>1.95058779215077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3413255086065163</v>
+        <v>1.186229964275839</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.43914542535947</v>
+        <v>0.09576458504089658</v>
       </c>
       <c r="E10">
-        <v>4.062996384640144</v>
+        <v>0.05939577747955127</v>
       </c>
       <c r="F10">
-        <v>21.65798227571383</v>
+        <v>0.8434914356532204</v>
       </c>
       <c r="G10">
-        <v>0.0004320639287472136</v>
+        <v>0.0007994221686356924</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4060351715064741</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07422031109058591</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.928499703693831</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.479685734407127</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.259113965554377</v>
+        <v>0.8120842993476103</v>
       </c>
       <c r="O10">
-        <v>19.46181047954326</v>
+        <v>2.062178661824646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3413255086065163</v>
+        <v>1.267968462986886</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.43914542535947</v>
+        <v>0.09962819952288982</v>
       </c>
       <c r="E11">
-        <v>4.062996384640144</v>
+        <v>0.05927752964290356</v>
       </c>
       <c r="F11">
-        <v>21.65798227571383</v>
+        <v>0.8675344678970731</v>
       </c>
       <c r="G11">
-        <v>0.0004320639287472136</v>
+        <v>0.0007968323351496292</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4006529404682446</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07297305371559282</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.067521959435481</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5135112566579068</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.259113965554377</v>
+        <v>0.7844569206570551</v>
       </c>
       <c r="O11">
-        <v>19.46181047954326</v>
+        <v>2.117523408832426</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3413255086065163</v>
+        <v>1.299015925285516</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.43914542535947</v>
+        <v>0.1011029097260447</v>
       </c>
       <c r="E12">
-        <v>4.062996384640144</v>
+        <v>0.05924156494397792</v>
       </c>
       <c r="F12">
-        <v>21.65798227571383</v>
+        <v>0.8768940791891566</v>
       </c>
       <c r="G12">
-        <v>0.0004320639287472136</v>
+        <v>0.0007958613238135437</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3987471076699123</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07250966205003939</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.120267511341126</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5263712544740429</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.259113965554377</v>
+        <v>0.7741885655799265</v>
       </c>
       <c r="O12">
-        <v>19.46181047954326</v>
+        <v>2.139187820587097</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3413255086065163</v>
+        <v>1.292324908724567</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.43914542535947</v>
+        <v>0.1007847766259431</v>
       </c>
       <c r="E13">
-        <v>4.062996384640144</v>
+        <v>0.05924891498490936</v>
       </c>
       <c r="F13">
-        <v>21.65798227571383</v>
+        <v>0.8748667023980374</v>
       </c>
       <c r="G13">
-        <v>0.0004320639287472136</v>
+        <v>0.0007960700231989028</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3991515774179888</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0726090632920724</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.108903023307278</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.523599257404797</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.259113965554377</v>
+        <v>0.7763913107701654</v>
       </c>
       <c r="O13">
-        <v>19.46181047954326</v>
+        <v>2.134489784014534</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3413255086065163</v>
+        <v>1.270520793874994</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.43914542535947</v>
+        <v>0.09974928787166704</v>
       </c>
       <c r="E14">
-        <v>4.062996384640144</v>
+        <v>0.05927439287305702</v>
       </c>
       <c r="F14">
-        <v>21.65798227571383</v>
+        <v>0.868299279101663</v>
       </c>
       <c r="G14">
-        <v>0.0004320639287472136</v>
+        <v>0.000796752257233109</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.400493458601936</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0729347508247562</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.071859237492731</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5145681990678952</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.259113965554377</v>
+        <v>0.7836082146786243</v>
       </c>
       <c r="O14">
-        <v>19.46181047954326</v>
+        <v>2.119291308014795</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3413255086065163</v>
+        <v>1.257177814789117</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.43914542535947</v>
+        <v>0.09911655599984925</v>
       </c>
       <c r="E15">
-        <v>4.062996384640144</v>
+        <v>0.05929115328696888</v>
       </c>
       <c r="F15">
-        <v>21.65798227571383</v>
+        <v>0.8643102640166802</v>
       </c>
       <c r="G15">
-        <v>0.0004320639287472136</v>
+        <v>0.0007971713973497496</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4013328168901324</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07313540857785661</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.049182545628696</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5090432389233968</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.259113965554377</v>
+        <v>0.7880542054000195</v>
       </c>
       <c r="O15">
-        <v>19.46181047954326</v>
+        <v>2.11007528714228</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3413255086065163</v>
+        <v>1.180900861850546</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.43914542535947</v>
+        <v>0.09551368426172502</v>
       </c>
       <c r="E16">
-        <v>4.062996384640144</v>
+        <v>0.05940472627897364</v>
       </c>
       <c r="F16">
-        <v>21.65798227571383</v>
+        <v>0.8419549328483811</v>
       </c>
       <c r="G16">
-        <v>0.0004320639287472136</v>
+        <v>0.0007995927990717305</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4064050852245629</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07430306400200593</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.919427360205304</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4774819656026636</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.259113965554377</v>
+        <v>0.8139164869553248</v>
       </c>
       <c r="O16">
-        <v>19.46181047954326</v>
+        <v>2.058657955388696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3413255086065163</v>
+        <v>1.134265196110078</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.43914542535947</v>
+        <v>0.09332351846158105</v>
       </c>
       <c r="E17">
-        <v>4.062996384640144</v>
+        <v>0.05948985791183148</v>
       </c>
       <c r="F17">
-        <v>21.65798227571383</v>
+        <v>0.8286769267920775</v>
       </c>
       <c r="G17">
-        <v>0.0004320639287472136</v>
+        <v>0.0008010959413152581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4097457445485162</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07503514543019207</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.839986442029726</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4582045874160769</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.259113965554377</v>
+        <v>0.8301188949448797</v>
       </c>
       <c r="O17">
-        <v>19.46181047954326</v>
+        <v>2.028321532154735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3413255086065163</v>
+        <v>1.107496313714648</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.43914542535947</v>
+        <v>0.09207097973587963</v>
       </c>
       <c r="E18">
-        <v>4.062996384640144</v>
+        <v>0.05954443414757726</v>
       </c>
       <c r="F18">
-        <v>21.65798227571383</v>
+        <v>0.8211948470120447</v>
       </c>
       <c r="G18">
-        <v>0.0004320639287472136</v>
+        <v>0.0008019671300676043</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4117494081658393</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07546197651684095</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.794347022213543</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4471459164488465</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.259113965554377</v>
+        <v>0.8395595106384821</v>
       </c>
       <c r="O18">
-        <v>19.46181047954326</v>
+        <v>2.011301021119777</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3413255086065163</v>
+        <v>1.098441926068858</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.43914542535947</v>
+        <v>0.09164810812890067</v>
       </c>
       <c r="E19">
-        <v>4.062996384640144</v>
+        <v>0.05956386985685924</v>
       </c>
       <c r="F19">
-        <v>21.65798227571383</v>
+        <v>0.8186876917031327</v>
       </c>
       <c r="G19">
-        <v>0.0004320639287472136</v>
+        <v>0.0008022632479716481</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4124417521386015</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.075607479683516</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.778902848965657</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4434064775083613</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.259113965554377</v>
+        <v>0.8427765784516854</v>
       </c>
       <c r="O19">
-        <v>19.46181047954326</v>
+        <v>2.005610306732478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3413255086065163</v>
+        <v>1.139223906859741</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.43914542535947</v>
+        <v>0.09355591728606072</v>
       </c>
       <c r="E20">
-        <v>4.062996384640144</v>
+        <v>0.05948021325250252</v>
       </c>
       <c r="F20">
-        <v>21.65798227571383</v>
+        <v>0.8300742268696837</v>
       </c>
       <c r="G20">
-        <v>0.0004320639287472136</v>
+        <v>0.0008009352466629734</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4093815745572975</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07495661747222382</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.848437460939238</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4602536372835146</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.259113965554377</v>
+        <v>0.8283815028250281</v>
       </c>
       <c r="O20">
-        <v>19.46181047954326</v>
+        <v>2.031506243330682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3413255086065163</v>
+        <v>1.276922531061047</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.43914542535947</v>
+        <v>0.100053115016955</v>
       </c>
       <c r="E21">
-        <v>4.062996384640144</v>
+        <v>0.05926666839927286</v>
       </c>
       <c r="F21">
-        <v>21.65798227571383</v>
+        <v>0.8702212320693974</v>
       </c>
       <c r="G21">
-        <v>0.0004320639287472136</v>
+        <v>0.0007965516083905231</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4000956743863462</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07283884556573916</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.08273700653902</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5172194066694118</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.259113965554377</v>
+        <v>0.7814831220521299</v>
       </c>
       <c r="O21">
-        <v>19.46181047954326</v>
+        <v>2.123735897127148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3413255086065163</v>
+        <v>1.367474759645887</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.43914542535947</v>
+        <v>0.1043675830969164</v>
       </c>
       <c r="E22">
-        <v>4.062996384640144</v>
+        <v>0.05917858523559794</v>
       </c>
       <c r="F22">
-        <v>21.65798227571383</v>
+        <v>0.897954601565047</v>
       </c>
       <c r="G22">
-        <v>0.0004320639287472136</v>
+        <v>0.0007937430095799582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3948010571017875</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07150679351824163</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.236462520254918</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5547501605779814</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.259113965554377</v>
+        <v>0.7519640994489656</v>
       </c>
       <c r="O22">
-        <v>19.46181047954326</v>
+        <v>2.188156096995755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3413255086065163</v>
+        <v>1.319090681450234</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.43914542535947</v>
+        <v>0.1020584225998675</v>
       </c>
       <c r="E23">
-        <v>4.062996384640144</v>
+        <v>0.05922081054300499</v>
       </c>
       <c r="F23">
-        <v>21.65798227571383</v>
+        <v>0.8830102555586308</v>
       </c>
       <c r="G23">
-        <v>0.0004320639287472136</v>
+        <v>0.0007952369845592696</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3975539323834134</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0722129354241936</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.154355295516041</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5346897618392319</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.259113965554377</v>
+        <v>0.7676128633460486</v>
       </c>
       <c r="O23">
-        <v>19.46181047954326</v>
+        <v>2.153378160876628</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3413255086065163</v>
+        <v>1.136981941861706</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.43914542535947</v>
+        <v>0.09345082921313264</v>
       </c>
       <c r="E24">
-        <v>4.062996384640144</v>
+        <v>0.0594845560741728</v>
       </c>
       <c r="F24">
-        <v>21.65798227571383</v>
+        <v>0.8294420364701551</v>
       </c>
       <c r="G24">
-        <v>0.0004320639287472136</v>
+        <v>0.0008010078748038534</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4095459575120728</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0749921014446886</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.84461665628848</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4593271870541145</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.259113965554377</v>
+        <v>0.8291665870250835</v>
       </c>
       <c r="O24">
-        <v>19.46181047954326</v>
+        <v>2.030065129832764</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3413255086065163</v>
+        <v>0.9426035310426926</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.43914542535947</v>
+        <v>0.08443873124793555</v>
       </c>
       <c r="E25">
-        <v>4.062996384640144</v>
+        <v>0.0599827627042</v>
       </c>
       <c r="F25">
-        <v>21.65798227571383</v>
+        <v>0.7775305006217508</v>
       </c>
       <c r="G25">
-        <v>0.0004320639287472136</v>
+        <v>0.000807487221697816</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4256023195882932</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07820959103876057</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.512471588310376</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3791308606658674</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.259113965554377</v>
+        <v>0.9001784723109427</v>
       </c>
       <c r="O25">
-        <v>19.46181047954326</v>
+        <v>1.913254597540799</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.80086895294437</v>
+        <v>0.7141138105734797</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0780152887485599</v>
+        <v>0.1672121791461905</v>
       </c>
       <c r="E2">
-        <v>0.06052579048847306</v>
+        <v>0.1622457546147498</v>
       </c>
       <c r="F2">
-        <v>0.7437848937152154</v>
+        <v>1.551594903784846</v>
       </c>
       <c r="G2">
-        <v>0.0008124907089353336</v>
+        <v>0.00247424243004628</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4399009266835137</v>
+        <v>1.100511047659349</v>
       </c>
       <c r="J2">
-        <v>0.08076415325276343</v>
+        <v>0.2012741135808693</v>
       </c>
       <c r="K2">
-        <v>1.268928384762205</v>
+        <v>0.4532032925836802</v>
       </c>
       <c r="L2">
-        <v>0.3208116589933212</v>
+        <v>0.2558711733115899</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.956194922110436</v>
+        <v>1.959933792393025</v>
       </c>
       <c r="O2">
-        <v>1.839538112200728</v>
+        <v>3.822103738925733</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7055037546760445</v>
+        <v>0.6895132758629643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07378413157347552</v>
+        <v>0.1667866191308747</v>
       </c>
       <c r="E3">
-        <v>0.06100016416132714</v>
+        <v>0.1630340943234314</v>
       </c>
       <c r="F3">
-        <v>0.7234436995975955</v>
+        <v>1.556305972820674</v>
       </c>
       <c r="G3">
-        <v>0.0008160333059647479</v>
+        <v>0.002476658153399547</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4510392449011604</v>
+        <v>1.109823531985771</v>
       </c>
       <c r="J3">
-        <v>0.08260951568658226</v>
+        <v>0.2024220512801662</v>
       </c>
       <c r="K3">
-        <v>1.104205602801812</v>
+        <v>0.4040889223917929</v>
       </c>
       <c r="L3">
-        <v>0.2816462176868129</v>
+        <v>0.2458726491909289</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9963737747177994</v>
+        <v>1.977695645413352</v>
       </c>
       <c r="O3">
-        <v>1.796489563936092</v>
+        <v>3.836778749004196</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6472366972732289</v>
+        <v>0.6746548597348863</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07124328061299678</v>
+        <v>0.1665749024031768</v>
       </c>
       <c r="E4">
-        <v>0.06134278378051139</v>
+        <v>0.1635582576223937</v>
       </c>
       <c r="F4">
-        <v>0.7121198652934737</v>
+        <v>1.559898821609622</v>
       </c>
       <c r="G4">
-        <v>0.0008182853089683774</v>
+        <v>0.002478222340150848</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4585622516902212</v>
+        <v>1.115961433256366</v>
       </c>
       <c r="J4">
-        <v>0.08379833686894966</v>
+        <v>0.2031675815546481</v>
       </c>
       <c r="K4">
-        <v>1.00313628131903</v>
+        <v>0.3739438986220875</v>
       </c>
       <c r="L4">
-        <v>0.2577458129645578</v>
+        <v>0.2398283726508765</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.022101967905</v>
+        <v>1.989175535084975</v>
       </c>
       <c r="O4">
-        <v>1.773232480954846</v>
+        <v>3.847604189112175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6235577352794621</v>
+        <v>0.6686625200555341</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0702218026568886</v>
+        <v>0.1665011473611813</v>
       </c>
       <c r="E5">
-        <v>0.06149515970553843</v>
+        <v>0.1637819704806924</v>
       </c>
       <c r="F5">
-        <v>0.7077870295400004</v>
+        <v>1.56153922373889</v>
       </c>
       <c r="G5">
-        <v>0.0008192226181805594</v>
+        <v>0.002478880167034349</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4617956231117368</v>
+        <v>1.118568372421223</v>
       </c>
       <c r="J5">
-        <v>0.08429673267810101</v>
+        <v>0.2034816432977797</v>
       </c>
       <c r="K5">
-        <v>0.9619555593725977</v>
+        <v>0.3616631692597707</v>
       </c>
       <c r="L5">
-        <v>0.2480393096953009</v>
+        <v>0.2373893245016916</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.032847443368386</v>
+        <v>1.993998105901115</v>
       </c>
       <c r="O5">
-        <v>1.764520631775099</v>
+        <v>3.852472370686684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6196296109070545</v>
+        <v>0.6676712949664818</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07005301708844058</v>
+        <v>0.1664896582398541</v>
       </c>
       <c r="E6">
-        <v>0.06152122753495526</v>
+        <v>0.1638197292700321</v>
       </c>
       <c r="F6">
-        <v>0.7070842562866559</v>
+        <v>1.561822264680046</v>
       </c>
       <c r="G6">
-        <v>0.0008193794493197834</v>
+        <v>0.002478990633002032</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4623425266389027</v>
+        <v>1.119007638806561</v>
       </c>
       <c r="J6">
-        <v>0.08438033066114725</v>
+        <v>0.2035344127950516</v>
       </c>
       <c r="K6">
-        <v>0.955117545801329</v>
+        <v>0.3596242036632589</v>
       </c>
       <c r="L6">
-        <v>0.2464294403058602</v>
+        <v>0.2369857802054725</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034647342775733</v>
+        <v>1.994807615137423</v>
       </c>
       <c r="O6">
-        <v>1.763119346517996</v>
+        <v>3.853308324002015</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6469170989209658</v>
+        <v>0.674573790712941</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0712294487015086</v>
+        <v>0.1665738569465276</v>
       </c>
       <c r="E7">
-        <v>0.06134478733158755</v>
+        <v>0.1635612337170507</v>
       </c>
       <c r="F7">
-        <v>0.7120603052064425</v>
+        <v>1.559920230591267</v>
       </c>
       <c r="G7">
-        <v>0.0008182978701261612</v>
+        <v>0.002478231129164299</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4586051846992021</v>
+        <v>1.115996163286461</v>
       </c>
       <c r="J7">
-        <v>0.08380500206402719</v>
+        <v>0.2031717755642899</v>
       </c>
       <c r="K7">
-        <v>1.002580895461989</v>
+        <v>0.3737782607950066</v>
       </c>
       <c r="L7">
-        <v>0.2576147786888328</v>
+        <v>0.2397953811895235</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.022245834783741</v>
+        <v>1.989239989098945</v>
       </c>
       <c r="O7">
-        <v>1.773111932226371</v>
+        <v>3.847667993379901</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7679230145060103</v>
+        <v>0.7055807684708952</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07654427624687798</v>
+        <v>0.1670551880789759</v>
       </c>
       <c r="E8">
-        <v>0.06067859980814116</v>
+        <v>0.1625092615417101</v>
       </c>
       <c r="F8">
-        <v>0.7365222652346475</v>
+        <v>1.553074069288485</v>
       </c>
       <c r="G8">
-        <v>0.0008136964210924691</v>
+        <v>0.002475058611845799</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4435967949984523</v>
+        <v>1.103634871636778</v>
       </c>
       <c r="J8">
-        <v>0.08138881231707185</v>
+        <v>0.2016614888726738</v>
       </c>
       <c r="K8">
-        <v>1.212109706241677</v>
+        <v>0.4362667249149297</v>
       </c>
       <c r="L8">
-        <v>0.3072743885473983</v>
+        <v>0.2524041054859794</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9698258466914194</v>
+        <v>1.965938984106499</v>
       </c>
       <c r="O8">
-        <v>1.824015832501345</v>
+        <v>3.826787199146196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.007840627731468</v>
+        <v>0.7683166388636096</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08744009193672042</v>
+        <v>0.1683902426571748</v>
       </c>
       <c r="E9">
-        <v>0.05978707886643697</v>
+        <v>0.1607636346473988</v>
       </c>
       <c r="F9">
-        <v>0.7942848721870064</v>
+        <v>1.545196755442959</v>
       </c>
       <c r="G9">
-        <v>0.0008052693793098356</v>
+        <v>0.002469476692692928</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4197956278374519</v>
+        <v>1.082723155880721</v>
       </c>
       <c r="J9">
-        <v>0.07709672949479662</v>
+        <v>0.1990217796742582</v>
       </c>
       <c r="K9">
-        <v>1.624155131263052</v>
+        <v>0.5588699704672422</v>
       </c>
       <c r="L9">
-        <v>0.4060183542400608</v>
+        <v>0.2778754576116711</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8756630352000769</v>
+        <v>1.924796536606717</v>
       </c>
       <c r="O9">
-        <v>1.95058779215077</v>
+        <v>3.800227848489328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.186229964275839</v>
+        <v>0.8155590943359528</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09576458504089658</v>
+        <v>0.1696068272052997</v>
       </c>
       <c r="E10">
-        <v>0.05939577747955127</v>
+        <v>0.159673142365989</v>
       </c>
       <c r="F10">
-        <v>0.8434914356532204</v>
+        <v>1.542782263705888</v>
       </c>
       <c r="G10">
-        <v>0.0007994221686356924</v>
+        <v>0.002465761647447502</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4060351715064741</v>
+        <v>1.069383364057114</v>
       </c>
       <c r="J10">
-        <v>0.07422031109058591</v>
+        <v>0.1972773669721408</v>
       </c>
       <c r="K10">
-        <v>1.928499703693831</v>
+        <v>0.6489579060724111</v>
       </c>
       <c r="L10">
-        <v>0.479685734407127</v>
+        <v>0.297036564272176</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8120842993476103</v>
+        <v>1.897337059149308</v>
       </c>
       <c r="O10">
-        <v>2.062178661824646</v>
+        <v>3.789472490426675</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267968462986886</v>
+        <v>0.837295304634182</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09962819952288982</v>
+        <v>0.1702109012355777</v>
       </c>
       <c r="E11">
-        <v>0.05927752964290356</v>
+        <v>0.1592184477253031</v>
       </c>
       <c r="F11">
-        <v>0.8675344678970731</v>
+        <v>1.542414414670418</v>
       </c>
       <c r="G11">
-        <v>0.0007968323351496292</v>
+        <v>0.002464154585645487</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4006529404682446</v>
+        <v>1.063753145335145</v>
       </c>
       <c r="J11">
-        <v>0.07297305371559282</v>
+        <v>0.1965258513612373</v>
       </c>
       <c r="K11">
-        <v>2.067521959435481</v>
+        <v>0.689938390837284</v>
       </c>
       <c r="L11">
-        <v>0.5135112566579068</v>
+        <v>0.3058491531294436</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7844569206570551</v>
+        <v>1.885444699420097</v>
       </c>
       <c r="O11">
-        <v>2.117523408832426</v>
+        <v>3.786478717961529</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.299015925285516</v>
+        <v>0.8455609599535023</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1011029097260447</v>
+        <v>0.1704468791665406</v>
       </c>
       <c r="E12">
-        <v>0.05924156494397792</v>
+        <v>0.1590521928381854</v>
       </c>
       <c r="F12">
-        <v>0.8768940791891566</v>
+        <v>1.542379988163617</v>
       </c>
       <c r="G12">
-        <v>0.0007958613238135437</v>
+        <v>0.002463557897786811</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3987471076699123</v>
+        <v>1.061684050374609</v>
       </c>
       <c r="J12">
-        <v>0.07250966205003939</v>
+        <v>0.1962472949674483</v>
       </c>
       <c r="K12">
-        <v>2.120267511341126</v>
+        <v>0.7054558449362673</v>
       </c>
       <c r="L12">
-        <v>0.5263712544740429</v>
+        <v>0.3091999042566584</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7741885655799265</v>
+        <v>1.881027451407336</v>
       </c>
       <c r="O12">
-        <v>2.139187820587097</v>
+        <v>3.785617843252197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.292324908724567</v>
+        <v>0.8437792737933023</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1007847766259431</v>
+        <v>0.1703957364835418</v>
       </c>
       <c r="E13">
-        <v>0.05924891498490936</v>
+        <v>0.1590877354930491</v>
       </c>
       <c r="F13">
-        <v>0.8748667023980374</v>
+        <v>1.542382741234974</v>
       </c>
       <c r="G13">
-        <v>0.0007960700231989028</v>
+        <v>0.002463685878144168</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3991515774179888</v>
+        <v>1.062126868286803</v>
       </c>
       <c r="J13">
-        <v>0.0726090632920724</v>
+        <v>0.1963070193222691</v>
       </c>
       <c r="K13">
-        <v>2.108903023307278</v>
+        <v>0.7021139396906335</v>
       </c>
       <c r="L13">
-        <v>0.523599257404797</v>
+        <v>0.3084776577831008</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7763913107701654</v>
+        <v>1.881974954389639</v>
       </c>
       <c r="O13">
-        <v>2.134489784014534</v>
+        <v>3.785791119176508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270520793874994</v>
+        <v>0.8379746349379786</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09974928787166704</v>
+        <v>0.1702301707286793</v>
       </c>
       <c r="E14">
-        <v>0.05927439287305702</v>
+        <v>0.1592046511515033</v>
       </c>
       <c r="F14">
-        <v>0.868299279101663</v>
+        <v>1.542409481647567</v>
       </c>
       <c r="G14">
-        <v>0.000796752257233109</v>
+        <v>0.00246410525832199</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.400493458601936</v>
+        <v>1.063581658412314</v>
       </c>
       <c r="J14">
-        <v>0.0729347508247562</v>
+        <v>0.1965028136815588</v>
       </c>
       <c r="K14">
-        <v>2.071859237492731</v>
+        <v>0.691215045225249</v>
       </c>
       <c r="L14">
-        <v>0.5145681990678952</v>
+        <v>0.3061245497510896</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7836082146786243</v>
+        <v>1.885079563680135</v>
       </c>
       <c r="O14">
-        <v>2.119291308014795</v>
+        <v>3.786402427395899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.257177814789117</v>
+        <v>0.8344236155081433</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09911655599984925</v>
+        <v>0.1701296966390871</v>
       </c>
       <c r="E15">
-        <v>0.05929115328696888</v>
+        <v>0.1592770367406242</v>
       </c>
       <c r="F15">
-        <v>0.8643102640166802</v>
+        <v>1.542439512818419</v>
       </c>
       <c r="G15">
-        <v>0.0007971713973497496</v>
+        <v>0.002464363685093605</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4013328168901324</v>
+        <v>1.064480955278992</v>
       </c>
       <c r="J15">
-        <v>0.07313540857785661</v>
+        <v>0.196623527671052</v>
       </c>
       <c r="K15">
-        <v>2.049182545628696</v>
+        <v>0.6845390073040676</v>
       </c>
       <c r="L15">
-        <v>0.5090432389233968</v>
+        <v>0.3046849701259049</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7880542054000195</v>
+        <v>1.886992442747772</v>
       </c>
       <c r="O15">
-        <v>2.11007528714228</v>
+        <v>3.78681239057147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.180900861850546</v>
+        <v>0.8141434630302911</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09551368426172502</v>
+        <v>0.1695683639832808</v>
       </c>
       <c r="E16">
-        <v>0.05940472627897364</v>
+        <v>0.1597036884610485</v>
       </c>
       <c r="F16">
-        <v>0.8419549328483811</v>
+        <v>1.542820988193384</v>
       </c>
       <c r="G16">
-        <v>0.0007995927990717305</v>
+        <v>0.00246586833698618</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4064050852245629</v>
+        <v>1.069760123519188</v>
       </c>
       <c r="J16">
-        <v>0.07430306400200593</v>
+        <v>0.1973273245005494</v>
       </c>
       <c r="K16">
-        <v>1.919427360205304</v>
+        <v>0.6462796448588506</v>
       </c>
       <c r="L16">
-        <v>0.4774819656026636</v>
+        <v>0.2964625572448369</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8139164869553248</v>
+        <v>1.898126306489401</v>
       </c>
       <c r="O16">
-        <v>2.058657955388696</v>
+        <v>3.789706329166478</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.134265196110078</v>
+        <v>0.8017646236494897</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09332351846158105</v>
+        <v>0.1692369369677991</v>
       </c>
       <c r="E17">
-        <v>0.05948985791183148</v>
+        <v>0.1599760073432606</v>
       </c>
       <c r="F17">
-        <v>0.8286769267920775</v>
+        <v>1.543241987428672</v>
       </c>
       <c r="G17">
-        <v>0.0008010959413152581</v>
+        <v>0.00246681259394584</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4097457445485162</v>
+        <v>1.073110896342275</v>
       </c>
       <c r="J17">
-        <v>0.07503514543019207</v>
+        <v>0.1977698328408155</v>
       </c>
       <c r="K17">
-        <v>1.839986442029726</v>
+        <v>0.6228079289953428</v>
       </c>
       <c r="L17">
-        <v>0.4582045874160769</v>
+        <v>0.2914428424757176</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8301188949448797</v>
+        <v>1.905109999646289</v>
       </c>
       <c r="O17">
-        <v>2.028321532154735</v>
+        <v>3.791967836553539</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107496313714648</v>
+        <v>0.7946677785169811</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09207097973587963</v>
+        <v>0.1690510789721955</v>
       </c>
       <c r="E18">
-        <v>0.05954443414757726</v>
+        <v>0.1601365337360221</v>
       </c>
       <c r="F18">
-        <v>0.8211948470120447</v>
+        <v>1.54355290522868</v>
       </c>
       <c r="G18">
-        <v>0.0008019671300676043</v>
+        <v>0.002467363515155065</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4117494081658393</v>
+        <v>1.075079413349961</v>
       </c>
       <c r="J18">
-        <v>0.07546197651684095</v>
+        <v>0.1980283086806236</v>
       </c>
       <c r="K18">
-        <v>1.794347022213543</v>
+        <v>0.6093075770868097</v>
       </c>
       <c r="L18">
-        <v>0.4471459164488465</v>
+        <v>0.2885646934574169</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8395595106384821</v>
+        <v>1.909183225756223</v>
       </c>
       <c r="O18">
-        <v>2.011301021119777</v>
+        <v>3.793447344027641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.098441926068858</v>
+        <v>0.7922689024534577</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09164810812890067</v>
+        <v>0.1689889715664776</v>
       </c>
       <c r="E19">
-        <v>0.05956386985685924</v>
+        <v>0.1601915549792778</v>
       </c>
       <c r="F19">
-        <v>0.8186876917031327</v>
+        <v>1.543669993396655</v>
       </c>
       <c r="G19">
-        <v>0.0008022632479716481</v>
+        <v>0.002467551390159692</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4124417521386015</v>
+        <v>1.075753004248309</v>
       </c>
       <c r="J19">
-        <v>0.075607479683516</v>
+        <v>0.1981165042563253</v>
       </c>
       <c r="K19">
-        <v>1.778902848965657</v>
+        <v>0.6047366079100129</v>
       </c>
       <c r="L19">
-        <v>0.4434064775083613</v>
+        <v>0.2875917636368683</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8427765784516854</v>
+        <v>1.910572035866215</v>
       </c>
       <c r="O19">
-        <v>2.005610306732478</v>
+        <v>3.793978987838756</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139223906859741</v>
+        <v>0.8030799825482688</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09355591728606072</v>
+        <v>0.1692717246505495</v>
       </c>
       <c r="E20">
-        <v>0.05948021325250252</v>
+        <v>0.1599466154929434</v>
       </c>
       <c r="F20">
-        <v>0.8300742268696837</v>
+        <v>1.543190055169298</v>
       </c>
       <c r="G20">
-        <v>0.0008009352466629734</v>
+        <v>0.002466711268631644</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4093815745572975</v>
+        <v>1.072749932950327</v>
       </c>
       <c r="J20">
-        <v>0.07495661747222382</v>
+        <v>0.1977223176888216</v>
       </c>
       <c r="K20">
-        <v>1.848437460939238</v>
+        <v>0.6253065435255678</v>
       </c>
       <c r="L20">
-        <v>0.4602536372835146</v>
+        <v>0.291976263681093</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8283815028250281</v>
+        <v>1.904360737522261</v>
       </c>
       <c r="O20">
-        <v>2.031506243330682</v>
+        <v>3.791708597314425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.276922531061047</v>
+        <v>0.8396786636531317</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.100053115016955</v>
+        <v>0.1702786056651036</v>
       </c>
       <c r="E21">
-        <v>0.05926666839927286</v>
+        <v>0.1591701494738498</v>
       </c>
       <c r="F21">
-        <v>0.8702212320693974</v>
+        <v>1.542398782614299</v>
       </c>
       <c r="G21">
-        <v>0.0007965516083905231</v>
+        <v>0.002463981754240467</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4000956743863462</v>
+        <v>1.06315264336456</v>
       </c>
       <c r="J21">
-        <v>0.07283884556573916</v>
+        <v>0.1964451407170738</v>
       </c>
       <c r="K21">
-        <v>2.08273700653902</v>
+        <v>0.6944163475342009</v>
       </c>
       <c r="L21">
-        <v>0.5172194066694118</v>
+        <v>0.3068153467475554</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7814831220521299</v>
+        <v>1.884165327251262</v>
       </c>
       <c r="O21">
-        <v>2.123735897127148</v>
+        <v>3.786215469634982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.367474759645887</v>
+        <v>0.8637995271767522</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1043675830969164</v>
+        <v>0.1709787670007969</v>
       </c>
       <c r="E22">
-        <v>0.05917858523559794</v>
+        <v>0.1586972275825467</v>
       </c>
       <c r="F22">
-        <v>0.897954601565047</v>
+        <v>1.54249282007072</v>
       </c>
       <c r="G22">
-        <v>0.0007937430095799582</v>
+        <v>0.002462267030510279</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3948010571017875</v>
+        <v>1.057247136272419</v>
       </c>
       <c r="J22">
-        <v>0.07150679351824163</v>
+        <v>0.1956455495335083</v>
       </c>
       <c r="K22">
-        <v>2.236462520254918</v>
+        <v>0.7395775843133094</v>
       </c>
       <c r="L22">
-        <v>0.5547501605779814</v>
+        <v>0.3165928086581715</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7519640994489656</v>
+        <v>1.871468487102716</v>
       </c>
       <c r="O22">
-        <v>2.188156096995755</v>
+        <v>3.78421537221854</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.319090681450234</v>
+        <v>0.8509075486201709</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1020584225998675</v>
+        <v>0.1706012428920474</v>
       </c>
       <c r="E23">
-        <v>0.05922081054300499</v>
+        <v>0.1589464812988375</v>
       </c>
       <c r="F23">
-        <v>0.8830102555586308</v>
+        <v>1.542386766157833</v>
       </c>
       <c r="G23">
-        <v>0.0007952369845592696</v>
+        <v>0.002463175899417302</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3975539323834134</v>
+        <v>1.060365465193481</v>
       </c>
       <c r="J23">
-        <v>0.0722129354241936</v>
+        <v>0.1960690987313658</v>
       </c>
       <c r="K23">
-        <v>2.154355295516041</v>
+        <v>0.715475006043647</v>
       </c>
       <c r="L23">
-        <v>0.5346897618392319</v>
+        <v>0.3113672083748327</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7676128633460486</v>
+        <v>1.878199099465329</v>
       </c>
       <c r="O23">
-        <v>2.153378160876628</v>
+        <v>3.785137463599881</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136981941861706</v>
+        <v>0.8024852467084713</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09345082921313264</v>
+        <v>0.169255982546332</v>
       </c>
       <c r="E24">
-        <v>0.0594845560741728</v>
+        <v>0.1599598911916313</v>
       </c>
       <c r="F24">
-        <v>0.8294420364701551</v>
+        <v>1.543213319175194</v>
       </c>
       <c r="G24">
-        <v>0.0008010078748038534</v>
+        <v>0.00246675705271271</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4095459575120728</v>
+        <v>1.072912993316685</v>
       </c>
       <c r="J24">
-        <v>0.0749921014446886</v>
+        <v>0.197743786604863</v>
       </c>
       <c r="K24">
-        <v>1.84461665628848</v>
+        <v>0.6241769389898764</v>
       </c>
       <c r="L24">
-        <v>0.4593271870541145</v>
+        <v>0.2917350797928151</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8291665870250835</v>
+        <v>1.904699297612026</v>
       </c>
       <c r="O24">
-        <v>2.030065129832764</v>
+        <v>3.791825240731441</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9426035310426926</v>
+        <v>0.7511409538238922</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08443873124793555</v>
+        <v>0.1679874822131922</v>
       </c>
       <c r="E25">
-        <v>0.0599827627042</v>
+        <v>0.1612020509931416</v>
       </c>
       <c r="F25">
-        <v>0.7775305006217508</v>
+        <v>1.546734781550029</v>
       </c>
       <c r="G25">
-        <v>0.000807487221697816</v>
+        <v>0.002470918693519542</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4256023195882932</v>
+        <v>1.088024508475627</v>
       </c>
       <c r="J25">
-        <v>0.07820959103876057</v>
+        <v>0.1997015572195791</v>
       </c>
       <c r="K25">
-        <v>1.512471588310376</v>
+        <v>0.5256985720699276</v>
       </c>
       <c r="L25">
-        <v>0.3791308606658674</v>
+        <v>0.2709057037840665</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9001784723109427</v>
+        <v>1.935440140204122</v>
       </c>
       <c r="O25">
-        <v>1.913254597540799</v>
+        <v>3.805873927695444</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7141138105734797</v>
+        <v>0.8008689529443132</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1672121791461905</v>
+        <v>0.07801528874841068</v>
       </c>
       <c r="E2">
-        <v>0.1622457546147498</v>
+        <v>0.06052579048847306</v>
       </c>
       <c r="F2">
-        <v>1.551594903784846</v>
+        <v>0.7437848937152154</v>
       </c>
       <c r="G2">
-        <v>0.00247424243004628</v>
+        <v>0.0008124907089354169</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.100511047659349</v>
+        <v>0.4399009266835066</v>
       </c>
       <c r="J2">
-        <v>0.2012741135808693</v>
+        <v>0.08076415325267527</v>
       </c>
       <c r="K2">
-        <v>0.4532032925836802</v>
+        <v>1.26892838476212</v>
       </c>
       <c r="L2">
-        <v>0.2558711733115899</v>
+        <v>0.3208116589932501</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.959933792393025</v>
+        <v>0.9561949221104893</v>
       </c>
       <c r="O2">
-        <v>3.822103738925733</v>
+        <v>1.839538112200756</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6895132758629643</v>
+        <v>0.7055037546760161</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1667866191308747</v>
+        <v>0.07378413157352526</v>
       </c>
       <c r="E3">
-        <v>0.1630340943234314</v>
+        <v>0.0610001641613156</v>
       </c>
       <c r="F3">
-        <v>1.556305972820674</v>
+        <v>0.7234436995976239</v>
       </c>
       <c r="G3">
-        <v>0.002476658153399547</v>
+        <v>0.0008160333060240082</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.109823531985771</v>
+        <v>0.451039244901164</v>
       </c>
       <c r="J3">
-        <v>0.2024220512801662</v>
+        <v>0.08260951568644481</v>
       </c>
       <c r="K3">
-        <v>0.4040889223917929</v>
+        <v>1.104205602801954</v>
       </c>
       <c r="L3">
-        <v>0.2458726491909289</v>
+        <v>0.2816462176868555</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.977695645413352</v>
+        <v>0.9963737747177976</v>
       </c>
       <c r="O3">
-        <v>3.836778749004196</v>
+        <v>1.796489563936063</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6746548597348863</v>
+        <v>0.6472366972732573</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1665749024031768</v>
+        <v>0.07124328061312468</v>
       </c>
       <c r="E4">
-        <v>0.1635582576223937</v>
+        <v>0.06134278378049718</v>
       </c>
       <c r="F4">
-        <v>1.559898821609622</v>
+        <v>0.7121198652934595</v>
       </c>
       <c r="G4">
-        <v>0.002478222340150848</v>
+        <v>0.0008182853089890209</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.115961433256366</v>
+        <v>0.4585622516901964</v>
       </c>
       <c r="J4">
-        <v>0.2031675815546481</v>
+        <v>0.08379833686906879</v>
       </c>
       <c r="K4">
-        <v>0.3739438986220875</v>
+        <v>1.003136281319058</v>
       </c>
       <c r="L4">
-        <v>0.2398283726508765</v>
+        <v>0.2577458129646146</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.989175535084975</v>
+        <v>1.02210196790505</v>
       </c>
       <c r="O4">
-        <v>3.847604189112175</v>
+        <v>1.773232480954761</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6686625200555341</v>
+        <v>0.6235577352792347</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1665011473611813</v>
+        <v>0.07022180265720124</v>
       </c>
       <c r="E5">
-        <v>0.1637819704806924</v>
+        <v>0.06149515970555264</v>
       </c>
       <c r="F5">
-        <v>1.56153922373889</v>
+        <v>0.7077870295400004</v>
       </c>
       <c r="G5">
-        <v>0.002478880167034349</v>
+        <v>0.0008192226182015538</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.118568372421223</v>
+        <v>0.4617956231117155</v>
       </c>
       <c r="J5">
-        <v>0.2034816432977797</v>
+        <v>0.08429673267812465</v>
       </c>
       <c r="K5">
-        <v>0.3616631692597707</v>
+        <v>0.9619555593726261</v>
       </c>
       <c r="L5">
-        <v>0.2373893245016916</v>
+        <v>0.2480393096953293</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.993998105901115</v>
+        <v>1.032847443368432</v>
       </c>
       <c r="O5">
-        <v>3.852472370686684</v>
+        <v>1.764520631775042</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6676712949664818</v>
+        <v>0.6196296109070829</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1664896582398541</v>
+        <v>0.0700530170883269</v>
       </c>
       <c r="E6">
-        <v>0.1638197292700321</v>
+        <v>0.06152122753494282</v>
       </c>
       <c r="F6">
-        <v>1.561822264680046</v>
+        <v>0.707084256286663</v>
       </c>
       <c r="G6">
-        <v>0.002478990633002032</v>
+        <v>0.0008193794493781576</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.119007638806561</v>
+        <v>0.4623425266389241</v>
       </c>
       <c r="J6">
-        <v>0.2035344127950516</v>
+        <v>0.08438033066105644</v>
       </c>
       <c r="K6">
-        <v>0.3596242036632589</v>
+        <v>0.9551175458012153</v>
       </c>
       <c r="L6">
-        <v>0.2369857802054725</v>
+        <v>0.2464294403059029</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.994807615137423</v>
+        <v>1.034647342775731</v>
       </c>
       <c r="O6">
-        <v>3.853308324002015</v>
+        <v>1.76311934651784</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.674573790712941</v>
+        <v>0.6469170989209942</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1665738569465276</v>
+        <v>0.07122944870154413</v>
       </c>
       <c r="E7">
-        <v>0.1635612337170507</v>
+        <v>0.06134478733158488</v>
       </c>
       <c r="F7">
-        <v>1.559920230591267</v>
+        <v>0.7120603052064141</v>
       </c>
       <c r="G7">
-        <v>0.002478231129164299</v>
+        <v>0.0008182978702056598</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.115996163286461</v>
+        <v>0.4586051846992021</v>
       </c>
       <c r="J7">
-        <v>0.2031717755642899</v>
+        <v>0.08380500206400332</v>
       </c>
       <c r="K7">
-        <v>0.3737782607950066</v>
+        <v>1.002580895462131</v>
       </c>
       <c r="L7">
-        <v>0.2397953811895235</v>
+        <v>0.2576147786889038</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.989239989098945</v>
+        <v>1.022245834783718</v>
       </c>
       <c r="O7">
-        <v>3.847667993379901</v>
+        <v>1.773111932226328</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7055807684708952</v>
+        <v>0.767923014506124</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1670551880789759</v>
+        <v>0.07654427624683535</v>
       </c>
       <c r="E8">
-        <v>0.1625092615417101</v>
+        <v>0.06067859980814116</v>
       </c>
       <c r="F8">
-        <v>1.553074069288485</v>
+        <v>0.7365222652346333</v>
       </c>
       <c r="G8">
-        <v>0.002475058611845799</v>
+        <v>0.0008136964209755071</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.103634871636778</v>
+        <v>0.4435967949984381</v>
       </c>
       <c r="J8">
-        <v>0.2016614888726738</v>
+        <v>0.0813888123171298</v>
       </c>
       <c r="K8">
-        <v>0.4362667249149297</v>
+        <v>1.212109706241876</v>
       </c>
       <c r="L8">
-        <v>0.2524041054859794</v>
+        <v>0.3072743885474125</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.965938984106499</v>
+        <v>0.9698258466914229</v>
       </c>
       <c r="O8">
-        <v>3.826787199146196</v>
+        <v>1.824015832501402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7683166388636096</v>
+        <v>1.007840627731554</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1683902426571748</v>
+        <v>0.087440091936827</v>
       </c>
       <c r="E9">
-        <v>0.1607636346473988</v>
+        <v>0.05978707886645296</v>
       </c>
       <c r="F9">
-        <v>1.545196755442959</v>
+        <v>0.7942848721869851</v>
       </c>
       <c r="G9">
-        <v>0.002469476692692928</v>
+        <v>0.0008052693793097198</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.082723155880721</v>
+        <v>0.4197956278374519</v>
       </c>
       <c r="J9">
-        <v>0.1990217796742582</v>
+        <v>0.07709672949468471</v>
       </c>
       <c r="K9">
-        <v>0.5588699704672422</v>
+        <v>1.624155131263024</v>
       </c>
       <c r="L9">
-        <v>0.2778754576116711</v>
+        <v>0.4060183542400893</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.924796536606717</v>
+        <v>0.8756630352001284</v>
       </c>
       <c r="O9">
-        <v>3.800227848489328</v>
+        <v>1.950587792150714</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8155590943359528</v>
+        <v>1.186229964275952</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1696068272052997</v>
+        <v>0.0957645850406621</v>
       </c>
       <c r="E10">
-        <v>0.159673142365989</v>
+        <v>0.05939577747956015</v>
       </c>
       <c r="F10">
-        <v>1.542782263705888</v>
+        <v>0.8434914356532062</v>
       </c>
       <c r="G10">
-        <v>0.002465761647447502</v>
+        <v>0.0007994221686586089</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.069383364057114</v>
+        <v>0.406035171506467</v>
       </c>
       <c r="J10">
-        <v>0.1972773669721408</v>
+        <v>0.07422031109051552</v>
       </c>
       <c r="K10">
-        <v>0.6489579060724111</v>
+        <v>1.928499703693916</v>
       </c>
       <c r="L10">
-        <v>0.297036564272176</v>
+        <v>0.4796857344071128</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.897337059149308</v>
+        <v>0.8120842993475907</v>
       </c>
       <c r="O10">
-        <v>3.789472490426675</v>
+        <v>2.062178661824674</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.837295304634182</v>
+        <v>1.267968462986886</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1702109012355777</v>
+        <v>0.09962819952288982</v>
       </c>
       <c r="E11">
-        <v>0.1592184477253031</v>
+        <v>0.05927752964290711</v>
       </c>
       <c r="F11">
-        <v>1.542414414670418</v>
+        <v>0.8675344678970731</v>
       </c>
       <c r="G11">
-        <v>0.002464154585645487</v>
+        <v>0.0007968323352055551</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.063753145335145</v>
+        <v>0.4006529404682411</v>
       </c>
       <c r="J11">
-        <v>0.1965258513612373</v>
+        <v>0.07297305371561857</v>
       </c>
       <c r="K11">
-        <v>0.689938390837284</v>
+        <v>2.067521959435481</v>
       </c>
       <c r="L11">
-        <v>0.3058491531294436</v>
+        <v>0.5135112566579494</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.885444699420097</v>
+        <v>0.784456920657048</v>
       </c>
       <c r="O11">
-        <v>3.786478717961529</v>
+        <v>2.117523408832398</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8455609599535023</v>
+        <v>1.299015925285374</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1704468791665406</v>
+        <v>0.101102909726059</v>
       </c>
       <c r="E12">
-        <v>0.1590521928381854</v>
+        <v>0.05924156494399568</v>
       </c>
       <c r="F12">
-        <v>1.542379988163617</v>
+        <v>0.8768940791891566</v>
       </c>
       <c r="G12">
-        <v>0.002463557897786811</v>
+        <v>0.0007958613237848672</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.061684050374609</v>
+        <v>0.3987471076698981</v>
       </c>
       <c r="J12">
-        <v>0.1962472949674483</v>
+        <v>0.07250966205010156</v>
       </c>
       <c r="K12">
-        <v>0.7054558449362673</v>
+        <v>2.120267511341098</v>
       </c>
       <c r="L12">
-        <v>0.3091999042566584</v>
+        <v>0.5263712544739292</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.881027451407336</v>
+        <v>0.7741885655799923</v>
       </c>
       <c r="O12">
-        <v>3.785617843252197</v>
+        <v>2.139187820587068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8437792737933023</v>
+        <v>1.29232490872468</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1703957364835418</v>
+        <v>0.1007847766259431</v>
       </c>
       <c r="E13">
-        <v>0.1590877354930491</v>
+        <v>0.05924891498492535</v>
       </c>
       <c r="F13">
-        <v>1.542382741234974</v>
+        <v>0.8748667023980232</v>
       </c>
       <c r="G13">
-        <v>0.002463685878144168</v>
+        <v>0.0007960700231988473</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.062126868286803</v>
+        <v>0.3991515774179852</v>
       </c>
       <c r="J13">
-        <v>0.1963070193222691</v>
+        <v>0.07260906329215588</v>
       </c>
       <c r="K13">
-        <v>0.7021139396906335</v>
+        <v>2.108903023307136</v>
       </c>
       <c r="L13">
-        <v>0.3084776577831008</v>
+        <v>0.5235992574047827</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.881974954389639</v>
+        <v>0.7763913107701477</v>
       </c>
       <c r="O13">
-        <v>3.785791119176508</v>
+        <v>2.134489784014448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8379746349379786</v>
+        <v>1.270520793874937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1702301707286793</v>
+        <v>0.09974928787178783</v>
       </c>
       <c r="E14">
-        <v>0.1592046511515033</v>
+        <v>0.05927439287304104</v>
       </c>
       <c r="F14">
-        <v>1.542409481647567</v>
+        <v>0.8682992791016488</v>
       </c>
       <c r="G14">
-        <v>0.00246410525832199</v>
+        <v>0.0007967522572599006</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.063581658412314</v>
+        <v>0.4004934586019289</v>
       </c>
       <c r="J14">
-        <v>0.1965028136815588</v>
+        <v>0.07293475082471601</v>
       </c>
       <c r="K14">
-        <v>0.691215045225249</v>
+        <v>2.071859237492617</v>
       </c>
       <c r="L14">
-        <v>0.3061245497510896</v>
+        <v>0.514568199067952</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.885079563680135</v>
+        <v>0.7836082146786083</v>
       </c>
       <c r="O14">
-        <v>3.786402427395899</v>
+        <v>2.119291308014738</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8344236155081433</v>
+        <v>1.25717781478923</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1701296966390871</v>
+        <v>0.09911655600001978</v>
       </c>
       <c r="E15">
-        <v>0.1592770367406242</v>
+        <v>0.05929115328695822</v>
       </c>
       <c r="F15">
-        <v>1.542439512818419</v>
+        <v>0.8643102640166802</v>
       </c>
       <c r="G15">
-        <v>0.002464363685093605</v>
+        <v>0.0007971713973498059</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.064480955278992</v>
+        <v>0.4013328168901467</v>
       </c>
       <c r="J15">
-        <v>0.196623527671052</v>
+        <v>0.07313540857779355</v>
       </c>
       <c r="K15">
-        <v>0.6845390073040676</v>
+        <v>2.049182545628668</v>
       </c>
       <c r="L15">
-        <v>0.3046849701259049</v>
+        <v>0.5090432389233257</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.886992442747772</v>
+        <v>0.7880542054000177</v>
       </c>
       <c r="O15">
-        <v>3.78681239057147</v>
+        <v>2.110075287142251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8141434630302911</v>
+        <v>1.180900861850574</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1695683639832808</v>
+        <v>0.09551368426173212</v>
       </c>
       <c r="E16">
-        <v>0.1597036884610485</v>
+        <v>0.05940472627894522</v>
       </c>
       <c r="F16">
-        <v>1.542820988193384</v>
+        <v>0.8419549328483811</v>
       </c>
       <c r="G16">
-        <v>0.00246586833698618</v>
+        <v>0.0007995927990982018</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.069760123519188</v>
+        <v>0.4064050852245664</v>
       </c>
       <c r="J16">
-        <v>0.1973273245005494</v>
+        <v>0.07430306400197129</v>
       </c>
       <c r="K16">
-        <v>0.6462796448588506</v>
+        <v>1.919427360205191</v>
       </c>
       <c r="L16">
-        <v>0.2964625572448369</v>
+        <v>0.4774819656027347</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.898126306489401</v>
+        <v>0.8139164869553142</v>
       </c>
       <c r="O16">
-        <v>3.789706329166478</v>
+        <v>2.058657955388696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8017646236494897</v>
+        <v>1.134265196110164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1692369369677991</v>
+        <v>0.09332351846169473</v>
       </c>
       <c r="E17">
-        <v>0.1599760073432606</v>
+        <v>0.05948985791183148</v>
       </c>
       <c r="F17">
-        <v>1.543241987428672</v>
+        <v>0.8286769267920917</v>
       </c>
       <c r="G17">
-        <v>0.00246681259394584</v>
+        <v>0.0008010959412893859</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.073110896342275</v>
+        <v>0.4097457445485304</v>
       </c>
       <c r="J17">
-        <v>0.1977698328408155</v>
+        <v>0.07503514543030887</v>
       </c>
       <c r="K17">
-        <v>0.6228079289953428</v>
+        <v>1.839986442029698</v>
       </c>
       <c r="L17">
-        <v>0.2914428424757176</v>
+        <v>0.4582045874160485</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.905109999646289</v>
+        <v>0.8301188949448672</v>
       </c>
       <c r="O17">
-        <v>3.791967836553539</v>
+        <v>2.028321532154706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7946677785169811</v>
+        <v>1.107496313714648</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1690510789721955</v>
+        <v>0.09207097973590095</v>
       </c>
       <c r="E18">
-        <v>0.1601365337360221</v>
+        <v>0.05954443414756305</v>
       </c>
       <c r="F18">
-        <v>1.54355290522868</v>
+        <v>0.8211948470120376</v>
       </c>
       <c r="G18">
-        <v>0.002467363515155065</v>
+        <v>0.0008019671301195772</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.075079413349961</v>
+        <v>0.4117494081658251</v>
       </c>
       <c r="J18">
-        <v>0.1980283086806236</v>
+        <v>0.07546197651687758</v>
       </c>
       <c r="K18">
-        <v>0.6093075770868097</v>
+        <v>1.794347022213543</v>
       </c>
       <c r="L18">
-        <v>0.2885646934574169</v>
+        <v>0.4471459164488465</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.909183225756223</v>
+        <v>0.8395595106384732</v>
       </c>
       <c r="O18">
-        <v>3.793447344027641</v>
+        <v>2.011301021119777</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7922689024534577</v>
+        <v>1.098441926068887</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1689889715664776</v>
+        <v>0.09164810812890067</v>
       </c>
       <c r="E19">
-        <v>0.1601915549792778</v>
+        <v>0.05956386985686279</v>
       </c>
       <c r="F19">
-        <v>1.543669993396655</v>
+        <v>0.8186876917031256</v>
       </c>
       <c r="G19">
-        <v>0.002467551390159692</v>
+        <v>0.0008022632479717</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.075753004248309</v>
+        <v>0.412441752138605</v>
       </c>
       <c r="J19">
-        <v>0.1981165042563253</v>
+        <v>0.07560747968354953</v>
       </c>
       <c r="K19">
-        <v>0.6047366079100129</v>
+        <v>1.778902848965629</v>
       </c>
       <c r="L19">
-        <v>0.2875917636368683</v>
+        <v>0.4434064775083471</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.910572035866215</v>
+        <v>0.842776578451689</v>
       </c>
       <c r="O19">
-        <v>3.793978987838756</v>
+        <v>2.005610306732535</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8030799825482688</v>
+        <v>1.139223906859797</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1692717246505495</v>
+        <v>0.09355591728600388</v>
       </c>
       <c r="E20">
-        <v>0.1599466154929434</v>
+        <v>0.05948021325249009</v>
       </c>
       <c r="F20">
-        <v>1.543190055169298</v>
+        <v>0.8300742268696766</v>
       </c>
       <c r="G20">
-        <v>0.002466711268631644</v>
+        <v>0.0008009352466635678</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.072749932950327</v>
+        <v>0.409381574557294</v>
       </c>
       <c r="J20">
-        <v>0.1977223176888216</v>
+        <v>0.07495661747225535</v>
       </c>
       <c r="K20">
-        <v>0.6253065435255678</v>
+        <v>1.848437460939209</v>
       </c>
       <c r="L20">
-        <v>0.291976263681093</v>
+        <v>0.4602536372835857</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.904360737522261</v>
+        <v>0.828381502824957</v>
       </c>
       <c r="O20">
-        <v>3.791708597314425</v>
+        <v>2.031506243330654</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8396786636531317</v>
+        <v>1.276922531061103</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1702786056651036</v>
+        <v>0.100053115017019</v>
       </c>
       <c r="E21">
-        <v>0.1591701494738498</v>
+        <v>0.05926666839927464</v>
       </c>
       <c r="F21">
-        <v>1.542398782614299</v>
+        <v>0.8702212320693832</v>
       </c>
       <c r="G21">
-        <v>0.002463981754240467</v>
+        <v>0.0007965516083913839</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.06315264336456</v>
+        <v>0.4000956743863391</v>
       </c>
       <c r="J21">
-        <v>0.1964451407170738</v>
+        <v>0.0728388455656539</v>
       </c>
       <c r="K21">
-        <v>0.6944163475342009</v>
+        <v>2.08273700653902</v>
       </c>
       <c r="L21">
-        <v>0.3068153467475554</v>
+        <v>0.5172194066693976</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.884165327251262</v>
+        <v>0.7814831220521281</v>
       </c>
       <c r="O21">
-        <v>3.786215469634982</v>
+        <v>2.123735897127091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8637995271767522</v>
+        <v>1.367474759645887</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1709787670007969</v>
+        <v>0.1043675830968667</v>
       </c>
       <c r="E22">
-        <v>0.1586972275825467</v>
+        <v>0.05917858523559794</v>
       </c>
       <c r="F22">
-        <v>1.54249282007072</v>
+        <v>0.897954601565047</v>
       </c>
       <c r="G22">
-        <v>0.002462267030510279</v>
+        <v>0.000793743009580683</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.057247136272419</v>
+        <v>0.3948010571017768</v>
       </c>
       <c r="J22">
-        <v>0.1956455495335083</v>
+        <v>0.07150679351818967</v>
       </c>
       <c r="K22">
-        <v>0.7395775843133094</v>
+        <v>2.236462520254975</v>
       </c>
       <c r="L22">
-        <v>0.3165928086581715</v>
+        <v>0.5547501605780667</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.871468487102716</v>
+        <v>0.7519640994490278</v>
       </c>
       <c r="O22">
-        <v>3.78421537221854</v>
+        <v>2.188156096995783</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8509075486201709</v>
+        <v>1.319090681450263</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1706012428920474</v>
+        <v>0.1020584225999315</v>
       </c>
       <c r="E23">
-        <v>0.1589464812988375</v>
+        <v>0.05922081054300321</v>
       </c>
       <c r="F23">
-        <v>1.542386766157833</v>
+        <v>0.8830102555586308</v>
       </c>
       <c r="G23">
-        <v>0.002463175899417302</v>
+        <v>0.0007952369845850953</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.060365465193481</v>
+        <v>0.3975539323833956</v>
       </c>
       <c r="J23">
-        <v>0.1960690987313658</v>
+        <v>0.07221293542431328</v>
       </c>
       <c r="K23">
-        <v>0.715475006043647</v>
+        <v>2.154355295516098</v>
       </c>
       <c r="L23">
-        <v>0.3113672083748327</v>
+        <v>0.5346897618392745</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.878199099465329</v>
+        <v>0.767612863346038</v>
       </c>
       <c r="O23">
-        <v>3.785137463599881</v>
+        <v>2.153378160876684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8024852467084713</v>
+        <v>1.136981941861563</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.169255982546332</v>
+        <v>0.09345082921309</v>
       </c>
       <c r="E24">
-        <v>0.1599598911916313</v>
+        <v>0.05948455607418524</v>
       </c>
       <c r="F24">
-        <v>1.543213319175194</v>
+        <v>0.829442036470148</v>
       </c>
       <c r="G24">
-        <v>0.00246675705271271</v>
+        <v>0.0008010078748328781</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.072912993316685</v>
+        <v>0.4095459575120657</v>
       </c>
       <c r="J24">
-        <v>0.197743786604863</v>
+        <v>0.07499210144463486</v>
       </c>
       <c r="K24">
-        <v>0.6241769389898764</v>
+        <v>1.844616656288423</v>
       </c>
       <c r="L24">
-        <v>0.2917350797928151</v>
+        <v>0.4593271870541429</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.904699297612026</v>
+        <v>0.8291665870251315</v>
       </c>
       <c r="O24">
-        <v>3.791825240731441</v>
+        <v>2.03006512983265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7511409538238922</v>
+        <v>0.9426035310427778</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1679874822131922</v>
+        <v>0.0844387312479995</v>
       </c>
       <c r="E25">
-        <v>0.1612020509931416</v>
+        <v>0.05998276270418934</v>
       </c>
       <c r="F25">
-        <v>1.546734781550029</v>
+        <v>0.7775305006217437</v>
       </c>
       <c r="G25">
-        <v>0.002470918693519542</v>
+        <v>0.0008074872216505986</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.088024508475627</v>
+        <v>0.4256023195882932</v>
       </c>
       <c r="J25">
-        <v>0.1997015572195791</v>
+        <v>0.0782095910387377</v>
       </c>
       <c r="K25">
-        <v>0.5256985720699276</v>
+        <v>1.512471588310262</v>
       </c>
       <c r="L25">
-        <v>0.2709057037840665</v>
+        <v>0.3791308606657822</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.935440140204122</v>
+        <v>0.9001784723109925</v>
       </c>
       <c r="O25">
-        <v>3.805873927695444</v>
+        <v>1.913254597540742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8008689529443132</v>
+        <v>0.5551486225386952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07801528874841068</v>
+        <v>0.004883557784292947</v>
       </c>
       <c r="E2">
-        <v>0.06052579048847306</v>
+        <v>1.548008277558722</v>
       </c>
       <c r="F2">
-        <v>0.7437848937152154</v>
+        <v>0.9813916079176295</v>
       </c>
       <c r="G2">
-        <v>0.0008124907089354169</v>
+        <v>0.9484193012768998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03479075568819923</v>
       </c>
       <c r="I2">
-        <v>0.4399009266835066</v>
+        <v>0.005903807541797867</v>
       </c>
       <c r="J2">
-        <v>0.08076415325267527</v>
+        <v>0.4972864804998522</v>
       </c>
       <c r="K2">
-        <v>1.26892838476212</v>
+        <v>0.5634572921613525</v>
       </c>
       <c r="L2">
-        <v>0.3208116589932501</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9561949221104893</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.839538112200756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3.153887678557368</v>
+      </c>
+      <c r="Q2">
+        <v>3.005438779866864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7055037546760161</v>
+        <v>0.4844269334165858</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07378413157352526</v>
+        <v>0.004211768913704006</v>
       </c>
       <c r="E3">
-        <v>0.0610001641613156</v>
+        <v>1.359674680681294</v>
       </c>
       <c r="F3">
-        <v>0.7234436995976239</v>
+        <v>0.8569708652808572</v>
       </c>
       <c r="G3">
-        <v>0.0008160333060240082</v>
+        <v>0.8243360756515585</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02845666871523278</v>
       </c>
       <c r="I3">
-        <v>0.451039244901164</v>
+        <v>0.006536737462899733</v>
       </c>
       <c r="J3">
-        <v>0.08260951568644481</v>
+        <v>0.4418500226789632</v>
       </c>
       <c r="K3">
-        <v>1.104205602801954</v>
+        <v>0.5248073823398371</v>
       </c>
       <c r="L3">
-        <v>0.2816462176868555</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9963737747177976</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.796489563936063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2.848846467675344</v>
+      </c>
+      <c r="Q3">
+        <v>2.626030995826397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6472366972732573</v>
+        <v>0.4403425188864674</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07124328061312468</v>
+        <v>0.003801446746965809</v>
       </c>
       <c r="E4">
-        <v>0.06134278378049718</v>
+        <v>1.244350362081519</v>
       </c>
       <c r="F4">
-        <v>0.7121198652934595</v>
+        <v>0.7812934730058316</v>
       </c>
       <c r="G4">
-        <v>0.0008182853089890209</v>
+        <v>0.7487872568050307</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02476922935748593</v>
       </c>
       <c r="I4">
-        <v>0.4585622516901964</v>
+        <v>0.006984047458503895</v>
       </c>
       <c r="J4">
-        <v>0.08379833686906879</v>
+        <v>0.4081999535312946</v>
       </c>
       <c r="K4">
-        <v>1.003136281319058</v>
+        <v>0.5017937305816815</v>
       </c>
       <c r="L4">
-        <v>0.2577458129646146</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.02210196790505</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.773232480954761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2.663189306752713</v>
+      </c>
+      <c r="Q4">
+        <v>2.395229030700079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6235577352792347</v>
+        <v>0.4209941194590954</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07022180265720124</v>
+        <v>0.003634773241437017</v>
       </c>
       <c r="E5">
-        <v>0.06149515970555264</v>
+        <v>1.197406529507006</v>
       </c>
       <c r="F5">
-        <v>0.7077870295400004</v>
+        <v>0.7506120612244445</v>
       </c>
       <c r="G5">
-        <v>0.0008192226182015538</v>
+        <v>0.7181384307496046</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02331164673861252</v>
       </c>
       <c r="I5">
-        <v>0.4617956231117155</v>
+        <v>0.007262387320026598</v>
       </c>
       <c r="J5">
-        <v>0.08429673267812465</v>
+        <v>0.3945744424997883</v>
       </c>
       <c r="K5">
-        <v>0.9619555593726261</v>
+        <v>0.4937246986577861</v>
       </c>
       <c r="L5">
-        <v>0.2480393096953293</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.032847443368432</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.764520631775042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.591606816167086</v>
+      </c>
+      <c r="Q5">
+        <v>2.301647509455563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6196296109070829</v>
+        <v>0.4162777628629755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0700530170883269</v>
+        <v>0.003607129421737909</v>
       </c>
       <c r="E6">
-        <v>0.06152122753494282</v>
+        <v>1.189613904579787</v>
       </c>
       <c r="F6">
-        <v>0.707084256286663</v>
+        <v>0.7455263244338539</v>
       </c>
       <c r="G6">
-        <v>0.0008193794493781576</v>
+        <v>0.7130569078674824</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02307217882041024</v>
       </c>
       <c r="I6">
-        <v>0.4623425266389241</v>
+        <v>0.007416628218759769</v>
       </c>
       <c r="J6">
-        <v>0.08438033066105644</v>
+        <v>0.3923169074574275</v>
       </c>
       <c r="K6">
-        <v>0.9551175458012153</v>
+        <v>0.4937867603190682</v>
       </c>
       <c r="L6">
-        <v>0.2464294403059029</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034647342775731</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.76311934651784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2.584248125229067</v>
+      </c>
+      <c r="Q6">
+        <v>2.28613491494545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6469170989209942</v>
+        <v>0.435988206108334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07122944870154413</v>
+        <v>0.003799196767760193</v>
       </c>
       <c r="E7">
-        <v>0.06134478733158488</v>
+        <v>1.243717086265733</v>
       </c>
       <c r="F7">
-        <v>0.7120603052064141</v>
+        <v>0.7808790831235797</v>
       </c>
       <c r="G7">
-        <v>0.0008182978702056598</v>
+        <v>0.7483733866170326</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02474939663639297</v>
       </c>
       <c r="I7">
-        <v>0.4586051846992021</v>
+        <v>0.007265417066339097</v>
       </c>
       <c r="J7">
-        <v>0.08380500206400332</v>
+        <v>0.4080158555601372</v>
       </c>
       <c r="K7">
-        <v>1.002580895462131</v>
+        <v>0.505497223582914</v>
       </c>
       <c r="L7">
-        <v>0.2576147786889038</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.022245834783718</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.773111932226328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2.67456787079081</v>
+      </c>
+      <c r="Q7">
+        <v>2.393965135485644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.767923014506124</v>
+        <v>0.5254446543241045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07654427624683535</v>
+        <v>0.004651472534188628</v>
       </c>
       <c r="E8">
-        <v>0.06067859980814116</v>
+        <v>1.482989098965675</v>
       </c>
       <c r="F8">
-        <v>0.7365222652346333</v>
+        <v>0.9383283575202483</v>
       </c>
       <c r="G8">
-        <v>0.0008136964209755071</v>
+        <v>0.9054887310975488</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03256141614850794</v>
       </c>
       <c r="I8">
-        <v>0.4435967949984381</v>
+        <v>0.006448909612156051</v>
       </c>
       <c r="J8">
-        <v>0.0813888123171298</v>
+        <v>0.4780849493874229</v>
       </c>
       <c r="K8">
-        <v>1.212109706241876</v>
+        <v>0.5550966982666949</v>
       </c>
       <c r="L8">
-        <v>0.3072743885474125</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9698258466914229</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.824015832501402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>3.064914032997706</v>
+      </c>
+      <c r="Q8">
+        <v>2.874128049847542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.007840627731554</v>
+        <v>0.7028054351514186</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.087440091936827</v>
+        <v>0.00634031311689931</v>
       </c>
       <c r="E9">
-        <v>0.05978707886645296</v>
+        <v>1.955994574624739</v>
       </c>
       <c r="F9">
-        <v>0.7942848721869851</v>
+        <v>1.253880075775825</v>
       </c>
       <c r="G9">
-        <v>0.0008052693793097198</v>
+        <v>1.219763568889334</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.04974957914543765</v>
       </c>
       <c r="I9">
-        <v>0.4197956278374519</v>
+        <v>0.004899430836783125</v>
       </c>
       <c r="J9">
-        <v>0.07709672949468471</v>
+        <v>0.6190776918626852</v>
       </c>
       <c r="K9">
-        <v>1.624155131263024</v>
+        <v>0.6512957820391776</v>
       </c>
       <c r="L9">
-        <v>0.4060183542400893</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8756630352001284</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.950587792150714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>3.821446641586334</v>
+      </c>
+      <c r="Q9">
+        <v>3.836235941706946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.186229964275952</v>
+        <v>0.8274133909542343</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0957645850406621</v>
+        <v>0.00799583745695287</v>
       </c>
       <c r="E10">
-        <v>0.05939577747956015</v>
+        <v>2.199375871533206</v>
       </c>
       <c r="F10">
-        <v>0.8434914356532062</v>
+        <v>1.476462524340761</v>
       </c>
       <c r="G10">
-        <v>0.0007994221686586089</v>
+        <v>1.438790761030731</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06257348623222114</v>
       </c>
       <c r="I10">
-        <v>0.406035171506467</v>
+        <v>0.004225079272832666</v>
       </c>
       <c r="J10">
-        <v>0.07422031109051552</v>
+        <v>0.717281142987332</v>
       </c>
       <c r="K10">
-        <v>1.928499703693916</v>
+        <v>0.7278334434132674</v>
       </c>
       <c r="L10">
-        <v>0.4796857344071128</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8120842993475907</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.062178661824674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.392771804451399</v>
+      </c>
+      <c r="Q10">
+        <v>4.506602084889948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267968462986886</v>
+        <v>0.8764230239592905</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09962819952288982</v>
+        <v>0.01281259614260577</v>
       </c>
       <c r="E11">
-        <v>0.05927752964290711</v>
+        <v>1.472299568856798</v>
       </c>
       <c r="F11">
-        <v>0.8675344678970731</v>
+        <v>1.449115946669167</v>
       </c>
       <c r="G11">
-        <v>0.0007968323352055551</v>
+        <v>1.391185028661965</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.07571626571269263</v>
       </c>
       <c r="I11">
-        <v>0.4006529404682411</v>
+        <v>0.004438238943932582</v>
       </c>
       <c r="J11">
-        <v>0.07297305371561857</v>
+        <v>0.6907753575792981</v>
       </c>
       <c r="K11">
-        <v>2.067521959435481</v>
+        <v>0.7701677349607436</v>
       </c>
       <c r="L11">
-        <v>0.5135112566579494</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.784456920657048</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.117523408832398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.676079097228524</v>
+      </c>
+      <c r="Q11">
+        <v>4.350334738558104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.299015925285374</v>
+        <v>0.8984763595842082</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.101102909726059</v>
+        <v>0.01726635789971454</v>
       </c>
       <c r="E12">
-        <v>0.05924156494399568</v>
+        <v>0.9446637567187679</v>
       </c>
       <c r="F12">
-        <v>0.8768940791891566</v>
+        <v>1.379565154592726</v>
       </c>
       <c r="G12">
-        <v>0.0007958613237848672</v>
+        <v>1.306600218017337</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1093841476254838</v>
       </c>
       <c r="I12">
-        <v>0.3987471076698981</v>
+        <v>0.004298829379411728</v>
       </c>
       <c r="J12">
-        <v>0.07250966205010156</v>
+        <v>0.6481085983247965</v>
       </c>
       <c r="K12">
-        <v>2.120267511341098</v>
+        <v>0.7828461607044801</v>
       </c>
       <c r="L12">
-        <v>0.5263712544739292</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7741885655799923</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.139187820587068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4.772479656867688</v>
+      </c>
+      <c r="Q12">
+        <v>4.081744328335787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.29232490872468</v>
+        <v>0.8944612085592496</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1007847766259431</v>
+        <v>0.02161469637865565</v>
       </c>
       <c r="E13">
-        <v>0.05924891498492535</v>
+        <v>0.5400604508587534</v>
       </c>
       <c r="F13">
-        <v>0.8748667023980232</v>
+        <v>1.274108034502646</v>
       </c>
       <c r="G13">
-        <v>0.0007960700231988473</v>
+        <v>1.18944708832376</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1600121771463989</v>
       </c>
       <c r="I13">
-        <v>0.3991515774179852</v>
+        <v>0.004278899009361403</v>
       </c>
       <c r="J13">
-        <v>0.07260906329215588</v>
+        <v>0.5908590863052154</v>
       </c>
       <c r="K13">
-        <v>2.108903023307136</v>
+        <v>0.7794029683508796</v>
       </c>
       <c r="L13">
-        <v>0.5235992574047827</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7763913107701477</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.134489784014448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>4.749436361342589</v>
+      </c>
+      <c r="Q13">
+        <v>3.713509132434922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270520793874937</v>
+        <v>0.8785493236400157</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09974928787178783</v>
+        <v>0.02465644302530734</v>
       </c>
       <c r="E14">
-        <v>0.05927439287304104</v>
+        <v>0.3315933472649419</v>
       </c>
       <c r="F14">
-        <v>0.8682992791016488</v>
+        <v>1.185047036260912</v>
       </c>
       <c r="G14">
-        <v>0.0007967522572599006</v>
+        <v>1.093971421815866</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2059162645473975</v>
       </c>
       <c r="I14">
-        <v>0.4004934586019289</v>
+        <v>0.004405233575889511</v>
       </c>
       <c r="J14">
-        <v>0.07293475082471601</v>
+        <v>0.5447267682669974</v>
       </c>
       <c r="K14">
-        <v>2.071859237492617</v>
+        <v>0.7709080011075216</v>
       </c>
       <c r="L14">
-        <v>0.514568199067952</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7836082146786083</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.119291308014738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>4.683040835970417</v>
+      </c>
+      <c r="Q14">
+        <v>3.414477930174712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.25717781478923</v>
+        <v>0.867353390383613</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09911655600001978</v>
+        <v>0.02526632533664497</v>
       </c>
       <c r="E15">
-        <v>0.05929115328695822</v>
+        <v>0.289848607527631</v>
       </c>
       <c r="F15">
-        <v>0.8643102640166802</v>
+        <v>1.15583404285637</v>
       </c>
       <c r="G15">
-        <v>0.0007971713973498059</v>
+        <v>1.063768858598337</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2172797121540384</v>
       </c>
       <c r="I15">
-        <v>0.4013328168901467</v>
+        <v>0.004585676017459406</v>
       </c>
       <c r="J15">
-        <v>0.07313540857779355</v>
+        <v>0.5304308045409556</v>
       </c>
       <c r="K15">
-        <v>2.049182545628668</v>
+        <v>0.7671135838125025</v>
       </c>
       <c r="L15">
-        <v>0.5090432389233257</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7880542054000177</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.110075287142251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>4.646875737567882</v>
+      </c>
+      <c r="Q15">
+        <v>3.320490838167018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.180900861850574</v>
+        <v>0.8121092984668223</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09551368426173212</v>
+        <v>0.02347913744619134</v>
       </c>
       <c r="E16">
-        <v>0.05940472627894522</v>
+        <v>0.2835651046954375</v>
       </c>
       <c r="F16">
-        <v>0.8419549328483811</v>
+        <v>1.084394641549792</v>
       </c>
       <c r="G16">
-        <v>0.0007995927990982018</v>
+        <v>0.9969351464690561</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2004453272715523</v>
       </c>
       <c r="I16">
-        <v>0.4064050852245664</v>
+        <v>0.005015896760749428</v>
       </c>
       <c r="J16">
-        <v>0.07430306400197129</v>
+        <v>0.5013456165189467</v>
       </c>
       <c r="K16">
-        <v>1.919427360205191</v>
+        <v>0.7367419866929126</v>
       </c>
       <c r="L16">
-        <v>0.4774819656027347</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8139164869553142</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.058657955388696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.411745866443709</v>
+      </c>
+      <c r="Q16">
+        <v>3.117728576380557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.134265196110164</v>
+        <v>0.7780555216009191</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09332351846169473</v>
+        <v>0.02047036029973626</v>
       </c>
       <c r="E17">
-        <v>0.05948985791183148</v>
+        <v>0.3752688284100287</v>
       </c>
       <c r="F17">
-        <v>0.8286769267920917</v>
+        <v>1.076448596542249</v>
       </c>
       <c r="G17">
-        <v>0.0008010959412893859</v>
+        <v>0.9956856254515714</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1612285606930755</v>
       </c>
       <c r="I17">
-        <v>0.4097457445485304</v>
+        <v>0.005306317657601589</v>
       </c>
       <c r="J17">
-        <v>0.07503514543030887</v>
+        <v>0.503283725956706</v>
       </c>
       <c r="K17">
-        <v>1.839986442029698</v>
+        <v>0.7182930209565939</v>
       </c>
       <c r="L17">
-        <v>0.4582045874160485</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8301188949448672</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.028321532154706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4.267897868637419</v>
+      </c>
+      <c r="Q17">
+        <v>3.119017817946542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107496313714648</v>
+        <v>0.7620504551375404</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09207097973590095</v>
+        <v>0.01638167523573841</v>
       </c>
       <c r="E18">
-        <v>0.05954443414756305</v>
+        <v>0.6271559499406365</v>
       </c>
       <c r="F18">
-        <v>0.8211948470120376</v>
+        <v>1.122692540553601</v>
       </c>
       <c r="G18">
-        <v>0.0008019671301195772</v>
+        <v>1.051872748385847</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1098567247467983</v>
       </c>
       <c r="I18">
-        <v>0.4117494081658251</v>
+        <v>0.005201912227943417</v>
       </c>
       <c r="J18">
-        <v>0.07546197651687758</v>
+        <v>0.5324832252401421</v>
       </c>
       <c r="K18">
-        <v>1.794347022213543</v>
+        <v>0.7042103834090554</v>
       </c>
       <c r="L18">
-        <v>0.4471459164488465</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8395595106384732</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.011301021119777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.173968501422053</v>
+      </c>
+      <c r="Q18">
+        <v>3.299198261991705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.098441926068887</v>
+        <v>0.7538120580645682</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09164810812890067</v>
+        <v>0.01216652868028234</v>
       </c>
       <c r="E19">
-        <v>0.05956386985686279</v>
+        <v>1.091216102147939</v>
       </c>
       <c r="F19">
-        <v>0.8186876917031256</v>
+        <v>1.211110422777296</v>
       </c>
       <c r="G19">
-        <v>0.0008022632479717</v>
+        <v>1.153219598380417</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.06961767483111458</v>
       </c>
       <c r="I19">
-        <v>0.412441752138605</v>
+        <v>0.005381502156216911</v>
       </c>
       <c r="J19">
-        <v>0.07560747968354953</v>
+        <v>0.5826363039391254</v>
       </c>
       <c r="K19">
-        <v>1.778902848965629</v>
+        <v>0.7021806382960563</v>
       </c>
       <c r="L19">
-        <v>0.4434064775083471</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.842776578451689</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.005610306732535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4.150930923199354</v>
+      </c>
+      <c r="Q19">
+        <v>3.619043685112558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139223906859797</v>
+        <v>0.781972452365693</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09355591728600388</v>
+        <v>0.007574753230557008</v>
       </c>
       <c r="E20">
-        <v>0.05948021325249009</v>
+        <v>2.130735565811506</v>
       </c>
       <c r="F20">
-        <v>0.8300742268696766</v>
+        <v>1.416983056863728</v>
       </c>
       <c r="G20">
-        <v>0.0008009352466635678</v>
+        <v>1.380184111834978</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.05902348630407195</v>
       </c>
       <c r="I20">
-        <v>0.409381574557294</v>
+        <v>0.005252132228248385</v>
       </c>
       <c r="J20">
-        <v>0.07495661747225535</v>
+        <v>0.6909434255281042</v>
       </c>
       <c r="K20">
-        <v>1.848437460939209</v>
+        <v>0.7199718592388535</v>
       </c>
       <c r="L20">
-        <v>0.4602536372835857</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.828381502824957</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.031506243330654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4.28230490122499</v>
+      </c>
+      <c r="Q20">
+        <v>4.327105512069693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.276922531061103</v>
+        <v>0.8791446987358711</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.100053115017019</v>
+        <v>0.008227335835972127</v>
       </c>
       <c r="E21">
-        <v>0.05926666839927464</v>
+        <v>2.48691270137347</v>
       </c>
       <c r="F21">
-        <v>0.8702212320693832</v>
+        <v>1.613337030998409</v>
       </c>
       <c r="G21">
-        <v>0.0007965516083913839</v>
+        <v>1.57715413765078</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.07154910545278437</v>
       </c>
       <c r="I21">
-        <v>0.4000956743863391</v>
+        <v>0.004657007410868275</v>
       </c>
       <c r="J21">
-        <v>0.0728388455656539</v>
+        <v>0.7803275449949183</v>
       </c>
       <c r="K21">
-        <v>2.08273700653902</v>
+        <v>0.7773677113325732</v>
       </c>
       <c r="L21">
-        <v>0.5172194066693976</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7814831220521281</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.123735897127091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>4.715254362997939</v>
+      </c>
+      <c r="Q21">
+        <v>4.932139499556115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.367474759645887</v>
+        <v>0.9472815222382849</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1043675830968667</v>
+        <v>0.008859880175492663</v>
       </c>
       <c r="E22">
-        <v>0.05917858523559794</v>
+        <v>2.66603926351506</v>
       </c>
       <c r="F22">
-        <v>0.897954601565047</v>
+        <v>1.735663681811744</v>
       </c>
       <c r="G22">
-        <v>0.000793743009580683</v>
+        <v>1.698681290794781</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.07946378800853182</v>
       </c>
       <c r="I22">
-        <v>0.3948010571017768</v>
+        <v>0.003983873804844329</v>
       </c>
       <c r="J22">
-        <v>0.07150679351818967</v>
+        <v>0.8353203651777505</v>
       </c>
       <c r="K22">
-        <v>2.236462520254975</v>
+        <v>0.8104511634194083</v>
       </c>
       <c r="L22">
-        <v>0.5547501605780667</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7519640994490278</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.188156096995783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>4.983394309352434</v>
+      </c>
+      <c r="Q22">
+        <v>5.305108929444543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.319090681450263</v>
+        <v>0.9158952049805578</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1020584225999315</v>
+        <v>0.008522072344039344</v>
       </c>
       <c r="E23">
-        <v>0.05922081054300321</v>
+        <v>2.570290555695806</v>
       </c>
       <c r="F23">
-        <v>0.8830102555586308</v>
+        <v>1.670215126827415</v>
       </c>
       <c r="G23">
-        <v>0.0007952369845850953</v>
+        <v>1.633665356471596</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.07519895378110419</v>
       </c>
       <c r="I23">
-        <v>0.3975539323833956</v>
+        <v>0.004003525572092492</v>
       </c>
       <c r="J23">
-        <v>0.07221293542431328</v>
+        <v>0.8058908924638786</v>
       </c>
       <c r="K23">
-        <v>2.154355295516098</v>
+        <v>0.7879582864945291</v>
       </c>
       <c r="L23">
-        <v>0.5346897618392745</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.767612863346038</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.153378160876684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4.824826428540177</v>
+      </c>
+      <c r="Q23">
+        <v>5.105556275613878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136981941861563</v>
+        <v>0.7879251788613146</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09345082921309</v>
+        <v>0.007247198907478491</v>
       </c>
       <c r="E24">
-        <v>0.05948455607418524</v>
+        <v>2.210605361682255</v>
       </c>
       <c r="F24">
-        <v>0.829442036470148</v>
+        <v>1.425649117290433</v>
       </c>
       <c r="G24">
-        <v>0.0008010078748328781</v>
+        <v>1.390606508483842</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.05988760841475393</v>
       </c>
       <c r="I24">
-        <v>0.4095459575120657</v>
+        <v>0.004721862074497096</v>
       </c>
       <c r="J24">
-        <v>0.07499210144463486</v>
+        <v>0.6960614874569444</v>
       </c>
       <c r="K24">
-        <v>1.844616656288423</v>
+        <v>0.7117378459151951</v>
       </c>
       <c r="L24">
-        <v>0.4593271870541429</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8291665870251315</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.03006512983265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.251808598753968</v>
+      </c>
+      <c r="Q24">
+        <v>4.359915520575157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9426035310427778</v>
+        <v>0.6479434544528146</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0844387312479995</v>
+        <v>0.005881490147977786</v>
       </c>
       <c r="E25">
-        <v>0.05998276270418934</v>
+        <v>1.82743342064154</v>
       </c>
       <c r="F25">
-        <v>0.7775305006217437</v>
+        <v>1.167623741796618</v>
       </c>
       <c r="G25">
-        <v>0.0008074872216505986</v>
+        <v>1.133918903220689</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.04486039351814775</v>
       </c>
       <c r="I25">
-        <v>0.4256023195882932</v>
+        <v>0.005746076940685185</v>
       </c>
       <c r="J25">
-        <v>0.0782095910387377</v>
+        <v>0.5804757806424163</v>
       </c>
       <c r="K25">
-        <v>1.512471588310262</v>
+        <v>0.6317499572742875</v>
       </c>
       <c r="L25">
-        <v>0.3791308606657822</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9001784723109925</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.913254597540742</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3.638247859403151</v>
+      </c>
+      <c r="Q25">
+        <v>3.573258066952633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5551486225386952</v>
+        <v>0.7261052125903404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004883557784292947</v>
+        <v>0.005198469120438531</v>
       </c>
       <c r="E2">
-        <v>1.548008277558722</v>
+        <v>1.534952129070376</v>
       </c>
       <c r="F2">
-        <v>0.9813916079176295</v>
+        <v>0.9801529627736727</v>
       </c>
       <c r="G2">
-        <v>0.9484193012768998</v>
+        <v>0.9521486587513124</v>
       </c>
       <c r="H2">
-        <v>0.03479075568819923</v>
+        <v>0.03310328374396176</v>
       </c>
       <c r="I2">
-        <v>0.005903807541797867</v>
+        <v>0.003179542007186953</v>
       </c>
       <c r="J2">
-        <v>0.4972864804998522</v>
+        <v>0.5474734260074712</v>
       </c>
       <c r="K2">
-        <v>0.5634572921613525</v>
+        <v>0.4096165942036549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1524762429136146</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1593407899542036</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.153887678557368</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.005438779866864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2.671215668056902</v>
+      </c>
+      <c r="S2">
+        <v>3.00372605830006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4844269334165858</v>
+        <v>0.6396226992277718</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004211768913704006</v>
+        <v>0.004478616368196242</v>
       </c>
       <c r="E3">
-        <v>1.359674680681294</v>
+        <v>1.347973734364686</v>
       </c>
       <c r="F3">
-        <v>0.8569708652808572</v>
+        <v>0.856946734195148</v>
       </c>
       <c r="G3">
-        <v>0.8243360756515585</v>
+        <v>0.8255691285479401</v>
       </c>
       <c r="H3">
-        <v>0.02845666871523278</v>
+        <v>0.02701868651018735</v>
       </c>
       <c r="I3">
-        <v>0.006536737462899733</v>
+        <v>0.003531692533962794</v>
       </c>
       <c r="J3">
-        <v>0.4418500226789632</v>
+        <v>0.4931707061535207</v>
       </c>
       <c r="K3">
-        <v>0.5248073823398371</v>
+        <v>0.3830356128572774</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1378569949286792</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1560397040523078</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.848846467675344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.626030995826397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2.40891530794633</v>
+      </c>
+      <c r="S3">
+        <v>2.628318963419787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4403425188864674</v>
+        <v>0.5855435650225616</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003801446746965809</v>
+        <v>0.004039089335028834</v>
       </c>
       <c r="E4">
-        <v>1.244350362081519</v>
+        <v>1.23345741879001</v>
       </c>
       <c r="F4">
-        <v>0.7812934730058316</v>
+        <v>0.7819574248786694</v>
       </c>
       <c r="G4">
-        <v>0.7487872568050307</v>
+        <v>0.7485760831310415</v>
       </c>
       <c r="H4">
-        <v>0.02476922935748593</v>
+        <v>0.0234788419252383</v>
       </c>
       <c r="I4">
-        <v>0.006984047458503895</v>
+        <v>0.003800623455931351</v>
       </c>
       <c r="J4">
-        <v>0.4081999535312946</v>
+        <v>0.4600075816462521</v>
       </c>
       <c r="K4">
-        <v>0.5017937305816815</v>
+        <v>0.3674513613477757</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1298101716901066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1541393598707508</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.663189306752713</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.395229030700079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2.249867428701691</v>
+      </c>
+      <c r="S4">
+        <v>2.399774969450135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4209941194590954</v>
+        <v>0.5620066643803057</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003634773241437017</v>
+        <v>0.003860573671484957</v>
       </c>
       <c r="E5">
-        <v>1.197406529507006</v>
+        <v>1.186837989012531</v>
       </c>
       <c r="F5">
-        <v>0.7506120612244445</v>
+        <v>0.7515437016268294</v>
       </c>
       <c r="G5">
-        <v>0.7181384307496046</v>
+        <v>0.7173584075757873</v>
       </c>
       <c r="H5">
-        <v>0.02331164673861252</v>
+        <v>0.02208023876564358</v>
       </c>
       <c r="I5">
-        <v>0.007262387320026598</v>
+        <v>0.004014043398791856</v>
       </c>
       <c r="J5">
-        <v>0.3945744424997883</v>
+        <v>0.4465324452008446</v>
       </c>
       <c r="K5">
-        <v>0.4937246986577861</v>
+        <v>0.3620511004451679</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1269514605989492</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1537803130244342</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.591606816167086</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.301647509455563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2.188456033425126</v>
+      </c>
+      <c r="S5">
+        <v>2.307069715887707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4162777628629755</v>
+        <v>0.5565461400954064</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003607129421737909</v>
+        <v>0.003830966512099465</v>
       </c>
       <c r="E6">
-        <v>1.189613904579787</v>
+        <v>1.179098970387997</v>
       </c>
       <c r="F6">
-        <v>0.7455263244338539</v>
+        <v>0.7465016964832927</v>
       </c>
       <c r="G6">
-        <v>0.7130569078674824</v>
+        <v>0.7121835433298145</v>
       </c>
       <c r="H6">
-        <v>0.02307217882041024</v>
+        <v>0.02185050056477178</v>
       </c>
       <c r="I6">
-        <v>0.007416628218759769</v>
+        <v>0.004170240505565914</v>
       </c>
       <c r="J6">
-        <v>0.3923169074574275</v>
+        <v>0.4442971050582116</v>
       </c>
       <c r="K6">
-        <v>0.4937867603190682</v>
+        <v>0.3621099119833886</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1267226092832736</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1541939056750152</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.584248125229067</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.28613491494545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2.181851710248765</v>
+      </c>
+      <c r="S6">
+        <v>2.291700144024276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.435988206108334</v>
+        <v>0.5810232791935164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003799196767760193</v>
+        <v>0.004079407183201766</v>
       </c>
       <c r="E7">
-        <v>1.243717086265733</v>
+        <v>1.23273453588827</v>
       </c>
       <c r="F7">
-        <v>0.7808790831235797</v>
+        <v>0.7798921085093724</v>
       </c>
       <c r="G7">
-        <v>0.7483733866170326</v>
+        <v>0.7530301252773626</v>
       </c>
       <c r="H7">
-        <v>0.02474939663639297</v>
+        <v>0.02344872122104635</v>
       </c>
       <c r="I7">
-        <v>0.007265417066339097</v>
+        <v>0.004114010968864434</v>
       </c>
       <c r="J7">
-        <v>0.4080158555601372</v>
+        <v>0.4517470043072791</v>
       </c>
       <c r="K7">
-        <v>0.505497223582914</v>
+        <v>0.3699809685399558</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1304404849251668</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1554026516621008</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.67456787079081</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.393965135485644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2.258827443959319</v>
+      </c>
+      <c r="S7">
+        <v>2.392544838145284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5254446543241045</v>
+        <v>0.6909255388223414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004651472534188628</v>
+        <v>0.005093707868994102</v>
       </c>
       <c r="E8">
-        <v>1.482989098965675</v>
+        <v>1.470093881637339</v>
       </c>
       <c r="F8">
-        <v>0.9383283575202483</v>
+        <v>0.9319697942176361</v>
       </c>
       <c r="G8">
-        <v>0.9054887310975488</v>
+        <v>0.9247419061617421</v>
       </c>
       <c r="H8">
-        <v>0.03256141614850794</v>
+        <v>0.03092172051895226</v>
       </c>
       <c r="I8">
-        <v>0.006448909612156051</v>
+        <v>0.003671214025835035</v>
       </c>
       <c r="J8">
-        <v>0.4780849493874229</v>
+        <v>0.5018758330337931</v>
       </c>
       <c r="K8">
-        <v>0.5550966982666949</v>
+        <v>0.4038514883091366</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1482848651443938</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1597809015874034</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.064914032997706</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.874128049847542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2.593570145491015</v>
+      </c>
+      <c r="S8">
+        <v>2.853787444778135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7028054351514186</v>
+        <v>0.9059964967347014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00634031311689931</v>
+        <v>0.006946882228845652</v>
       </c>
       <c r="E9">
-        <v>1.955994574624739</v>
+        <v>1.939430041945599</v>
       </c>
       <c r="F9">
-        <v>1.253880075775825</v>
+        <v>1.242437841531498</v>
       </c>
       <c r="G9">
-        <v>1.219763568889334</v>
+        <v>1.250669821721516</v>
       </c>
       <c r="H9">
-        <v>0.04974957914543765</v>
+        <v>0.04742713587296699</v>
       </c>
       <c r="I9">
-        <v>0.004899430836783125</v>
+        <v>0.002749535205132325</v>
       </c>
       <c r="J9">
-        <v>0.6190776918626852</v>
+        <v>0.6308018809756959</v>
       </c>
       <c r="K9">
-        <v>0.6512957820391776</v>
+        <v>0.4714058524226417</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1892043083013206</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1672824385116414</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>3.821446641586334</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.836235941706946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3.248317306373877</v>
+      </c>
+      <c r="S9">
+        <v>3.798579473997393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8274133909542343</v>
+        <v>1.056783412503904</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00799583745695287</v>
+        <v>0.009004801160294562</v>
       </c>
       <c r="E10">
-        <v>2.199375871533206</v>
+        <v>2.17976029640927</v>
       </c>
       <c r="F10">
-        <v>1.476462524340761</v>
+        <v>1.450969640260197</v>
       </c>
       <c r="G10">
-        <v>1.438790761030731</v>
+        <v>1.508453351125326</v>
       </c>
       <c r="H10">
-        <v>0.06257348623222114</v>
+        <v>0.05966064057702347</v>
       </c>
       <c r="I10">
-        <v>0.004225079272832666</v>
+        <v>0.002522011162390925</v>
       </c>
       <c r="J10">
-        <v>0.717281142987332</v>
+        <v>0.6722072253824081</v>
       </c>
       <c r="K10">
-        <v>0.7278334434132674</v>
+        <v>0.5263384972155762</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2243657233540901</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1740479552305629</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4.392771804451399</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>4.506602084889948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3.745125269751696</v>
+      </c>
+      <c r="S10">
+        <v>4.419156169085511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8764230239592905</v>
+        <v>1.117364721571505</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01281259614260577</v>
+        <v>0.01477165372415712</v>
       </c>
       <c r="E11">
-        <v>1.472299568856798</v>
+        <v>1.4542391147655</v>
       </c>
       <c r="F11">
-        <v>1.449115946669167</v>
+        <v>1.402186733911208</v>
       </c>
       <c r="G11">
-        <v>1.391185028661965</v>
+        <v>1.525662192698547</v>
       </c>
       <c r="H11">
-        <v>0.07571626571269263</v>
+        <v>0.07277384122658148</v>
       </c>
       <c r="I11">
-        <v>0.004438238943932582</v>
+        <v>0.003002328864669224</v>
       </c>
       <c r="J11">
-        <v>0.6907753575792981</v>
+        <v>0.5522056401575099</v>
       </c>
       <c r="K11">
-        <v>0.7701677349607436</v>
+        <v>0.5570146288295277</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2431910490156639</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1790508168471092</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4.676079097228524</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.350334738558104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3.990823712439663</v>
+      </c>
+      <c r="S11">
+        <v>4.187239632569515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8984763595842082</v>
+        <v>1.14377173956899</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01726635789971454</v>
+        <v>0.01989330789108479</v>
       </c>
       <c r="E12">
-        <v>0.9446637567187679</v>
+        <v>0.9286469631317829</v>
       </c>
       <c r="F12">
-        <v>1.379565154592726</v>
+        <v>1.324278627074563</v>
       </c>
       <c r="G12">
-        <v>1.306600218017337</v>
+        <v>1.467308841777225</v>
       </c>
       <c r="H12">
-        <v>0.1093841476254838</v>
+        <v>0.1065437321904952</v>
       </c>
       <c r="I12">
-        <v>0.004298829379411728</v>
+        <v>0.002926219342532121</v>
       </c>
       <c r="J12">
-        <v>0.6481085983247965</v>
+        <v>0.4755336784808719</v>
       </c>
       <c r="K12">
-        <v>0.7828461607044801</v>
+        <v>0.5662507166476942</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2495488536326107</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1800146900426327</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>4.772479656867688</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.081744328335787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>4.075149850847851</v>
+      </c>
+      <c r="S12">
+        <v>3.89018850684522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8944612085592496</v>
+        <v>1.138823380213097</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02161469637865565</v>
+        <v>0.02436785306136713</v>
       </c>
       <c r="E13">
-        <v>0.5400604508587534</v>
+        <v>0.5264728742756262</v>
       </c>
       <c r="F13">
-        <v>1.274108034502646</v>
+        <v>1.2235002595488</v>
       </c>
       <c r="G13">
-        <v>1.18944708832376</v>
+        <v>1.336880494074336</v>
       </c>
       <c r="H13">
-        <v>0.1600121771463989</v>
+        <v>0.1573915150818408</v>
       </c>
       <c r="I13">
-        <v>0.004278899009361403</v>
+        <v>0.002884585139911522</v>
       </c>
       <c r="J13">
-        <v>0.5908590863052154</v>
+        <v>0.4374006966911281</v>
       </c>
       <c r="K13">
-        <v>0.7794029683508796</v>
+        <v>0.5637442566582536</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.247981663664973</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1796159839195752</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4.749436361342589</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.713509132434922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>4.05513313811349</v>
+      </c>
+      <c r="S13">
+        <v>3.539635344246619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785493236400157</v>
+        <v>1.11985131413212</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02465644302530734</v>
+        <v>0.02718014126818247</v>
       </c>
       <c r="E14">
-        <v>0.3315933472649419</v>
+        <v>0.3197267524947947</v>
       </c>
       <c r="F14">
-        <v>1.185047036260912</v>
+        <v>1.142892067777098</v>
       </c>
       <c r="G14">
-        <v>1.093971421815866</v>
+        <v>1.216613791186148</v>
       </c>
       <c r="H14">
-        <v>0.2059162645473975</v>
+        <v>0.2034869738870242</v>
       </c>
       <c r="I14">
-        <v>0.004405233575889511</v>
+        <v>0.002971059118970665</v>
       </c>
       <c r="J14">
-        <v>0.5447267682669974</v>
+        <v>0.4251956617063684</v>
       </c>
       <c r="K14">
-        <v>0.7709080011075216</v>
+        <v>0.5575548820124183</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2436304333209947</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1790485541236038</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>4.683040835970417</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.414477930174712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3.996973316757874</v>
+      </c>
+      <c r="S14">
+        <v>3.270934507258858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.867353390383613</v>
+        <v>1.106768504028366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02526632533664497</v>
+        <v>0.02759630503387456</v>
       </c>
       <c r="E15">
-        <v>0.289848607527631</v>
+        <v>0.278480224418054</v>
       </c>
       <c r="F15">
-        <v>1.15583404285637</v>
+        <v>1.11793315406257</v>
       </c>
       <c r="G15">
-        <v>1.063768858598337</v>
+        <v>1.173904548986371</v>
       </c>
       <c r="H15">
-        <v>0.2172797121540384</v>
+        <v>0.2149252220818312</v>
       </c>
       <c r="I15">
-        <v>0.004585676017459406</v>
+        <v>0.003143638877285859</v>
       </c>
       <c r="J15">
-        <v>0.5304308045409556</v>
+        <v>0.4280359487595433</v>
       </c>
       <c r="K15">
-        <v>0.7671135838125025</v>
+        <v>0.554785908909075</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2413562023586167</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1790817860187914</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4.646875737567882</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>3.320490838167018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3.965012659181838</v>
+      </c>
+      <c r="S15">
+        <v>3.19193106507521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121092984668223</v>
+        <v>1.040649227358188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02347913744619134</v>
+        <v>0.02475374453217327</v>
       </c>
       <c r="E16">
-        <v>0.2835651046954375</v>
+        <v>0.2731760735488571</v>
       </c>
       <c r="F16">
-        <v>1.084394641549792</v>
+        <v>1.065031648244428</v>
       </c>
       <c r="G16">
-        <v>0.9969351464690561</v>
+        <v>1.052945098968877</v>
       </c>
       <c r="H16">
-        <v>0.2004453272715523</v>
+        <v>0.1983805095747044</v>
       </c>
       <c r="I16">
-        <v>0.005015896760749428</v>
+        <v>0.003422648797169359</v>
       </c>
       <c r="J16">
-        <v>0.5013456165189467</v>
+        <v>0.4761433325298157</v>
       </c>
       <c r="K16">
-        <v>0.7367419866929126</v>
+        <v>0.5327418696935666</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2262062242633007</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1769300220484453</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>4.411745866443709</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.117728576380557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3.759433214787265</v>
+      </c>
+      <c r="S16">
+        <v>3.053669907774662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7780555216009191</v>
+        <v>0.9998368602333585</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02047036029973626</v>
+        <v>0.0212938566548786</v>
       </c>
       <c r="E17">
-        <v>0.3752688284100287</v>
+        <v>0.3647708157675211</v>
       </c>
       <c r="F17">
-        <v>1.076448596542249</v>
+        <v>1.064844695150086</v>
       </c>
       <c r="G17">
-        <v>0.9956856254515714</v>
+        <v>1.029167150355903</v>
       </c>
       <c r="H17">
-        <v>0.1612285606930755</v>
+        <v>0.1592743383785802</v>
       </c>
       <c r="I17">
-        <v>0.005306317657601589</v>
+        <v>0.003619014218651628</v>
       </c>
       <c r="J17">
-        <v>0.503283725956706</v>
+        <v>0.512206996001396</v>
       </c>
       <c r="K17">
-        <v>0.7182930209565939</v>
+        <v>0.5194061732214692</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2171449077487111</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1756483311109562</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>4.267897868637419</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.119017817946542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3.633805871427512</v>
+      </c>
+      <c r="S17">
+        <v>3.081885727127997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7620504551375404</v>
+        <v>0.9799431663906546</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01638167523573841</v>
+        <v>0.01702430993740833</v>
       </c>
       <c r="E18">
-        <v>0.6271559499406365</v>
+        <v>0.6155812599668096</v>
       </c>
       <c r="F18">
-        <v>1.122692540553601</v>
+        <v>1.114112999309256</v>
       </c>
       <c r="G18">
-        <v>1.051872748385847</v>
+        <v>1.075999815235448</v>
       </c>
       <c r="H18">
-        <v>0.1098567247467983</v>
+        <v>0.1078770156491018</v>
       </c>
       <c r="I18">
-        <v>0.005201912227943417</v>
+        <v>0.003414306215208995</v>
       </c>
       <c r="J18">
-        <v>0.5324832252401421</v>
+        <v>0.5560900674945941</v>
       </c>
       <c r="K18">
-        <v>0.7042103834090554</v>
+        <v>0.5092679598537444</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2111189711718637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1739336174038471</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4.173968501422053</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.299198261991705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3.552566743167489</v>
+      </c>
+      <c r="S18">
+        <v>3.272540209500846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7538120580645682</v>
+        <v>0.9703595947249539</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01216652868028234</v>
+        <v>0.01275943337063978</v>
       </c>
       <c r="E19">
-        <v>1.091216102147939</v>
+        <v>1.077642111381593</v>
       </c>
       <c r="F19">
-        <v>1.211110422777296</v>
+        <v>1.202863815260898</v>
       </c>
       <c r="G19">
-        <v>1.153219598380417</v>
+        <v>1.175279297109313</v>
       </c>
       <c r="H19">
-        <v>0.06961767483111458</v>
+        <v>0.06747713812304568</v>
       </c>
       <c r="I19">
-        <v>0.005381502156216911</v>
+        <v>0.003594476720508055</v>
       </c>
       <c r="J19">
-        <v>0.5826363039391254</v>
+        <v>0.6099296934595202</v>
       </c>
       <c r="K19">
-        <v>0.7021806382960563</v>
+        <v>0.5078025191338753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2097881680638167</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1741186162573989</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>4.150930923199354</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>3.619043685112558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3.532155292285466</v>
+      </c>
+      <c r="S19">
+        <v>3.593457205359073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.781972452365693</v>
+        <v>1.004478775272503</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007574753230557008</v>
+        <v>0.008310277441722747</v>
       </c>
       <c r="E20">
-        <v>2.130735565811506</v>
+        <v>2.112295934511124</v>
       </c>
       <c r="F20">
-        <v>1.416983056863728</v>
+        <v>1.401377991318199</v>
       </c>
       <c r="G20">
-        <v>1.380184111834978</v>
+        <v>1.421263884818444</v>
       </c>
       <c r="H20">
-        <v>0.05902348630407195</v>
+        <v>0.05632227497170916</v>
       </c>
       <c r="I20">
-        <v>0.005252132228248385</v>
+        <v>0.003571218719579328</v>
       </c>
       <c r="J20">
-        <v>0.6909434255281042</v>
+        <v>0.6896068291879658</v>
       </c>
       <c r="K20">
-        <v>0.7199718592388535</v>
+        <v>0.5206188965282763</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2180290810508012</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1757059250054311</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>4.28230490122499</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.327105512069693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>3.646440191411187</v>
+      </c>
+      <c r="S20">
+        <v>4.275067962322169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8791446987358711</v>
+        <v>1.121331427857797</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008227335835972127</v>
+        <v>0.01015240861690714</v>
       </c>
       <c r="E21">
-        <v>2.48691270137347</v>
+        <v>2.463531894376402</v>
       </c>
       <c r="F21">
-        <v>1.613337030998409</v>
+        <v>1.553631554418459</v>
       </c>
       <c r="G21">
-        <v>1.57715413765078</v>
+        <v>1.748983813361463</v>
       </c>
       <c r="H21">
-        <v>0.07154910545278437</v>
+        <v>0.06802659560153668</v>
       </c>
       <c r="I21">
-        <v>0.004657007410868275</v>
+        <v>0.003282633636475296</v>
       </c>
       <c r="J21">
-        <v>0.7803275449949183</v>
+        <v>0.5892319202613692</v>
       </c>
       <c r="K21">
-        <v>0.7773677113325732</v>
+        <v>0.5622399905628797</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2459756668717219</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1802842895536898</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4.715254362997939</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>4.932139499556115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>4.024364298758542</v>
+      </c>
+      <c r="S21">
+        <v>4.721784675076094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9472815222382849</v>
+        <v>1.202066445071296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.008859880175492663</v>
+        <v>0.01169994757944082</v>
       </c>
       <c r="E22">
-        <v>2.66603926351506</v>
+        <v>2.639483102734985</v>
       </c>
       <c r="F22">
-        <v>1.735663681811744</v>
+        <v>1.643883164941485</v>
       </c>
       <c r="G22">
-        <v>1.698681290794781</v>
+        <v>1.968953289075017</v>
       </c>
       <c r="H22">
-        <v>0.07946378800853182</v>
+        <v>0.07538696453181437</v>
       </c>
       <c r="I22">
-        <v>0.003983873804844329</v>
+        <v>0.002742905351766467</v>
       </c>
       <c r="J22">
-        <v>0.8353203651777505</v>
+        <v>0.5177405548053429</v>
       </c>
       <c r="K22">
-        <v>0.8104511634194083</v>
+        <v>0.5864196251045186</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2636436538101705</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1820462359639805</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>4.983394309352434</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.305108929444543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>4.259884813161591</v>
+      </c>
+      <c r="S22">
+        <v>4.979784203332997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9158952049805578</v>
+        <v>1.163996300389243</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008522072344039344</v>
+        <v>0.01073591980345512</v>
       </c>
       <c r="E23">
-        <v>2.570290555695806</v>
+        <v>2.54566627719268</v>
       </c>
       <c r="F23">
-        <v>1.670215126827415</v>
+        <v>1.600207049749415</v>
       </c>
       <c r="G23">
-        <v>1.633665356471596</v>
+        <v>1.836441152611314</v>
       </c>
       <c r="H23">
-        <v>0.07519895378110419</v>
+        <v>0.07145544747438759</v>
       </c>
       <c r="I23">
-        <v>0.004003525572092492</v>
+        <v>0.002637213644169911</v>
       </c>
       <c r="J23">
-        <v>0.8058908924638786</v>
+        <v>0.5735471345298038</v>
       </c>
       <c r="K23">
-        <v>0.7879582864945291</v>
+        <v>0.5699955822841076</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2528433705207789</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1798131773193035</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>4.824826428540177</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>5.105556275613878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>4.121589423601591</v>
+      </c>
+      <c r="S23">
+        <v>4.858322210503559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7879251788613146</v>
+        <v>1.010159765287796</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007247198907478491</v>
+        <v>0.007966261107160477</v>
       </c>
       <c r="E24">
-        <v>2.210605361682255</v>
+        <v>2.191878919233687</v>
       </c>
       <c r="F24">
-        <v>1.425649117290433</v>
+        <v>1.410314315126044</v>
       </c>
       <c r="G24">
-        <v>1.390606508483842</v>
+        <v>1.430774493722964</v>
       </c>
       <c r="H24">
-        <v>0.05988760841475393</v>
+        <v>0.05716008926617278</v>
       </c>
       <c r="I24">
-        <v>0.004721862074497096</v>
+        <v>0.002949021180594258</v>
       </c>
       <c r="J24">
-        <v>0.6960614874569444</v>
+        <v>0.6962096071383144</v>
       </c>
       <c r="K24">
-        <v>0.7117378459151951</v>
+        <v>0.5147038972880011</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2157073618184313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1736002496317255</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>4.251808598753968</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.359915520575157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3.621333730405297</v>
+      </c>
+      <c r="S24">
+        <v>4.308817647915134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6479434544528146</v>
+        <v>0.8411086027824979</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005881490147977786</v>
+        <v>0.006380390171111472</v>
       </c>
       <c r="E25">
-        <v>1.82743342064154</v>
+        <v>1.812033511576757</v>
       </c>
       <c r="F25">
-        <v>1.167623741796618</v>
+        <v>1.160042109648145</v>
       </c>
       <c r="G25">
-        <v>1.133918903220689</v>
+        <v>1.154422996388604</v>
       </c>
       <c r="H25">
-        <v>0.04486039351814775</v>
+        <v>0.04274917926458865</v>
       </c>
       <c r="I25">
-        <v>0.005746076940685185</v>
+        <v>0.003501266619456267</v>
       </c>
       <c r="J25">
-        <v>0.5804757806424163</v>
+        <v>0.6072433544730984</v>
       </c>
       <c r="K25">
-        <v>0.6317499572742875</v>
+        <v>0.4575221199960211</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1790127887569533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1672236603547326</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>3.638247859403151</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.573258066952633</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3.087883014189629</v>
+      </c>
+      <c r="S25">
+        <v>3.549245444345388</v>
       </c>
     </row>
   </sheetData>
